--- a/doc/詳細設計.xlsx
+++ b/doc/詳細設計.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vue" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="PHPサンプル" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Laravelサンプル" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="コンポーネント図" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PHPサンプル" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Laravelサンプル" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,8 +22,201 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">実際のカラム系ではなく、日本語での呼び名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">実際のカラム系ではなく、日本語での呼び名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">システムの名前を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">データベース名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">実際のテーブル名ではなく、日本語での呼び名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">実際のデータベースの中での名前を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">テーブル内での実際のカラム名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">カラムのデータ型を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">あなたのお名前を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">作成した日付を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">更新した日付を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">システムで使用するデータベースの種類、バージョンを入力します。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS PGothic"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">テーブルで使用するデフォルトの文字コードと照合順序です。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
   <si>
     <t xml:space="preserve">機能</t>
   </si>
@@ -78,253 +272,316 @@
     <t xml:space="preserve">ログアウト処理を行う。</t>
   </si>
   <si>
+    <t xml:space="preserve">/Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doGet()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一覧表示を行う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/TodoRegister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TodoRegisterServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todoRegister.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新規登録フォームを表示する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doPost()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新規登録処理を行う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/TodoUpdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TodoUpdateServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todoUpdate.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新フォームを表示する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新処理を行う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/UserRegister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserRegisterServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userRegister.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザー登録フォームを表示する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザー登録処理を行う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/UserUpdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserUpdateServlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userUpdate.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザー情報更新フォームを表示する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザー情報更新処理を行う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テーブル情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">システム名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTfull共有型TODO管理アプリケーション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作成者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岡　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サブシステム名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作成日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データベース名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/03/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">論理テーブル名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作業項目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDBMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL 8.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物理テーブル名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">照合順序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utf8mb4_unicode_ci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App.vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainApp.vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンポーネント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalNavi.vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL(/はindex.php)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トップページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おすすめ商品、お知らせ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員ページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員トップページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員情報変更、パスワード変更、購入履歴確認、退会ボタン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/login/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員ログインページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/login/process.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員ログイン処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/edit/acount/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員情報変更ページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/edit/acount/confirm.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員情報変更確認ページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/edit/acount/process.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員情報変更処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/edit/pasword/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員パスワード変更ページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/edit/pasword/confirm.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員パスワード変更確認ページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/edit/password/process.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員パスワード変更処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/order_history.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購入履歴確認ページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/deactivate/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会ページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会確認表示して、退会ボタンクリックで退会処理へ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/deactivate/process.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/logout/process.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員ログアウト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログアウト後、未ログイントップ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/resistration/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新規会員登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/resistration/confirm.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新規会員登録確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/member/resistration/process.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新規会員登録処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コントローラ名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リクエストメソッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクションメソッド名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auth/LoginController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laravelの機能を使用する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auth/RegisterController</t>
+  </si>
+  <si>
     <t xml:space="preserve">一覧表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MainServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doGet()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一覧表示を行う。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO新規登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/TodoRegister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TodoRegisterServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todoRegister.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新規登録フォームを表示する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doPost()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新規登録処理を行う。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO更新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/TodoUpdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TodoUpdateServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todoUpdate.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新フォームを表示する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新処理を行う。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザー登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/UserRegister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserRegisterServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userRegister.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザー登録フォームを表示する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザー登録処理を行う。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザー情報更新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/UserUpdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserUpdateServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userUpdate.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザー情報更新フォームを表示する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザー情報更新処理を行う。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL(/はindex.php)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トップページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おすすめ商品、お知らせ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員ページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員トップページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員情報変更、パスワード変更、購入履歴確認、退会ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/login/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員ログインページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/login/process.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員ログイン処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/edit/acount/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員情報変更ページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/edit/acount/confirm.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員情報変更確認ページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/edit/acount/process.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員情報変更処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/edit/pasword/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員パスワード変更ページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/edit/pasword/confirm.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員パスワード変更確認ページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/edit/password/process.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員パスワード変更処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/order_history.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購入履歴確認ページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/deactivate/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退会ページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退会確認表示して、退会ボタンクリックで退会処理へ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/deactivate/process.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退会処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/logout/process.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員ログアウト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログアウト後、未ログイントップ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/resistration/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新規会員登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/resistration/confirm.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新規会員登録確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/member/resistration/process.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新規会員登録処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コントローラ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リクエストメソッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクションメソッド名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth/LoginController</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravelの機能を使用する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth/RegisterController</t>
   </si>
   <si>
     <t xml:space="preserve">/tasks</t>
@@ -433,10 +690,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -462,8 +720,46 @@
       <family val="0"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,8 +772,14 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87E7AD"/>
+        <bgColor rgb="FFB4C7E7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="32">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -492,8 +794,238 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="dotted"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,8 +1049,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -547,14 +1082,187 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="標準 3" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -594,7 +1302,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF87E7AD"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -626,10 +1334,10 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -787,50 +1495,46 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -839,40 +1543,38 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -881,40 +1583,38 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -923,40 +1623,38 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -965,16 +1663,16 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H18" s="4"/>
     </row>
@@ -1071,9 +1769,451 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9"/>
+      <c r="B4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="45" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="48"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1094,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1105,185 +2245,185 @@
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -1301,14 +2441,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
@@ -1319,7 +2459,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.14"/>
@@ -1336,16 +2476,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -1356,13 +2496,13 @@
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -1374,23 +2514,23 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>12</v>
@@ -1402,165 +2542,165 @@
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="H10" s="4"/>
     </row>

--- a/doc/詳細設計.xlsx
+++ b/doc/詳細設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="コンポーネント図" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="概念図" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="機能一覧" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="完成RESTfullTODOアプリ概念図" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -217,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
   <si>
     <t xml:space="preserve">機能</t>
   </si>
@@ -645,6 +646,9 @@
   <si>
     <t xml:space="preserve">管理画面に配置
 .xlsxシートに記載した社員情報に基づいて、社員を一括登録ができる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヌルヌルっと動く画面遷移なしで使えるTODOリスト</t>
   </si>
 </sst>
 </file>
@@ -655,7 +659,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -723,7 +727,7 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -735,11 +739,17 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="游明朝"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -747,14 +757,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="1"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -765,10 +781,16 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="游明朝"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -794,17 +816,19 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FFC9211E"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1128,27 +1152,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1353,12 +1377,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1425,7 +1453,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1445,9 +1473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
+      <xdr:colOff>332640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>219600</xdr:rowOff>
+      <xdr:rowOff>219240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1461,7 +1489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="873720" y="2921040"/>
-          <a:ext cx="794160" cy="2327760"/>
+          <a:ext cx="793800" cy="2327400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,9 +1510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>591480</xdr:colOff>
+      <xdr:colOff>591120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>206280</xdr:rowOff>
+      <xdr:rowOff>205920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1494,7 +1522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57240" y="2378160"/>
-          <a:ext cx="2536560" cy="342720"/>
+          <a:ext cx="2536200" cy="342360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1511,7 +1539,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1573,9 +1601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
+      <xdr:colOff>599400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1585,7 +1613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4229640" y="1454040"/>
-          <a:ext cx="1041840" cy="5184360"/>
+          <a:ext cx="1041480" cy="5184000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1593,7 +1621,7 @@
         <a:solidFill>
           <a:srgbClr val="70ad47"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="527f34"/>
           </a:solidFill>
@@ -1678,9 +1706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1690,7 +1718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="4025880"/>
-          <a:ext cx="1823760" cy="418680"/>
+          <a:ext cx="1823400" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -1701,7 +1729,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -1733,9 +1761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>395280</xdr:colOff>
+      <xdr:colOff>394920</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>225360</xdr:rowOff>
+      <xdr:rowOff>225000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1745,7 +1773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2522880" y="3121200"/>
-          <a:ext cx="1209240" cy="761760"/>
+          <a:ext cx="1208880" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1762,7 +1790,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1841,9 +1869,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
+      <xdr:colOff>115200</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -1858,8 +1886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2117160" y="5864760"/>
-          <a:ext cx="1819800" cy="418680"/>
+          <a:off x="2117520" y="5865120"/>
+          <a:ext cx="1819440" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -1870,7 +1898,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -1902,9 +1930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>381240</xdr:colOff>
+      <xdr:colOff>380880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1914,7 +1942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1982520" y="4956120"/>
-          <a:ext cx="2403000" cy="872640"/>
+          <a:ext cx="2402640" cy="872280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1931,7 +1959,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2051,9 +2079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>455760</xdr:colOff>
+      <xdr:colOff>455400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2067,7 +2095,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7598160" y="2981160"/>
-          <a:ext cx="866160" cy="2322000"/>
+          <a:ext cx="865800" cy="2321640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2088,9 +2116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>486000</xdr:colOff>
+      <xdr:colOff>485640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2100,7 +2128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7292880" y="2314440"/>
-          <a:ext cx="2536560" cy="342720"/>
+          <a:ext cx="2536200" cy="342360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2117,7 +2145,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2179,9 +2207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>357480</xdr:colOff>
+      <xdr:colOff>357120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2191,7 +2219,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5821920" y="2333520"/>
-          <a:ext cx="1209240" cy="761760"/>
+          <a:ext cx="1208880" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2208,7 +2236,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2287,9 +2315,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>92520</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2304,8 +2332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5431680" y="3200760"/>
-          <a:ext cx="1823040" cy="418680"/>
+          <a:off x="5432040" y="3201120"/>
+          <a:ext cx="1822680" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2316,7 +2344,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -2348,9 +2376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>644400</xdr:colOff>
+      <xdr:colOff>644040</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2360,7 +2388,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5501160" y="4473720"/>
-          <a:ext cx="1816920" cy="418680"/>
+          <a:ext cx="1816560" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2371,7 +2399,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -2403,9 +2431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>407160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2415,7 +2443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5345640" y="3616200"/>
-          <a:ext cx="2403000" cy="904680"/>
+          <a:ext cx="2402640" cy="904320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2432,7 +2460,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2535,9 +2563,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:colOff>64440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2552,8 +2580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5403240" y="6093360"/>
-          <a:ext cx="1819800" cy="418680"/>
+          <a:off x="5403600" y="6093720"/>
+          <a:ext cx="1819440" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2564,7 +2592,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -2596,9 +2624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>296640</xdr:colOff>
+      <xdr:colOff>296280</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>215640</xdr:rowOff>
+      <xdr:rowOff>215280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2608,7 +2636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5453640" y="4800600"/>
-          <a:ext cx="2184120" cy="1358640"/>
+          <a:ext cx="2183760" cy="1358280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2625,7 +2653,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2787,9 +2815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600480</xdr:colOff>
+      <xdr:colOff>600120</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>192240</xdr:rowOff>
+      <xdr:rowOff>191880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2799,7 +2827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4226400" y="7356600"/>
-          <a:ext cx="1045800" cy="5180040"/>
+          <a:ext cx="1045440" cy="5179680"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2807,7 +2835,7 @@
         <a:solidFill>
           <a:srgbClr val="70ad47"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="527f34"/>
           </a:solidFill>
@@ -2892,9 +2920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>348840</xdr:colOff>
+      <xdr:colOff>348480</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2908,7 +2936,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="838800" y="8435880"/>
-          <a:ext cx="844920" cy="2325240"/>
+          <a:ext cx="844560" cy="2324880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2950,6 +2978,7 @@
           <a:solidFill>
             <a:srgbClr val="4472c4"/>
           </a:solidFill>
+          <a:round/>
           <a:headEnd len="med" type="triangle" w="med"/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
@@ -2966,9 +2995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>58320</xdr:colOff>
+      <xdr:colOff>57960</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2978,7 +3007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4881240" y="6800760"/>
-          <a:ext cx="1850760" cy="294840"/>
+          <a:ext cx="1850400" cy="294480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2995,7 +3024,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3034,9 +3063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3046,7 +3075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285840" y="7229520"/>
-          <a:ext cx="3114360" cy="647280"/>
+          <a:ext cx="3114000" cy="646920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3063,7 +3092,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3102,9 +3131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3114,7 +3143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2227680" y="2187720"/>
-          <a:ext cx="1823760" cy="418680"/>
+          <a:ext cx="1823400" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3125,7 +3154,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -3157,9 +3186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>140760</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3169,7 +3198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2345400" y="1596960"/>
-          <a:ext cx="1800000" cy="761760"/>
+          <a:ext cx="1799640" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3186,7 +3215,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3219,9 +3248,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105120</xdr:colOff>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3236,8 +3265,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5444280" y="1949760"/>
-          <a:ext cx="1829520" cy="418680"/>
+          <a:off x="5444640" y="1950120"/>
+          <a:ext cx="1829160" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3248,7 +3277,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -3280,9 +3309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
+      <xdr:colOff>165960</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3292,7 +3321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5707440" y="1371600"/>
-          <a:ext cx="1800000" cy="761760"/>
+          <a:ext cx="1799640" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3309,7 +3338,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3348,9 +3377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3360,7 +3389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="8112240"/>
-          <a:ext cx="1823760" cy="418680"/>
+          <a:ext cx="1823400" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3371,7 +3400,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -3403,9 +3432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3415,7 +3444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="7540560"/>
-          <a:ext cx="1800000" cy="761760"/>
+          <a:ext cx="1799640" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3432,7 +3461,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3471,9 +3500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>647280</xdr:colOff>
+      <xdr:colOff>646920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3483,7 +3512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2173680" y="11969640"/>
-          <a:ext cx="1810440" cy="418680"/>
+          <a:ext cx="1810080" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3494,7 +3523,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -3526,9 +3555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
+      <xdr:colOff>332640</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>212400</xdr:rowOff>
+      <xdr:rowOff>212040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3538,7 +3567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2068920" y="9156600"/>
-          <a:ext cx="3603240" cy="1342800"/>
+          <a:ext cx="3602880" cy="1342440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,7 +3584,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3696,9 +3725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
+      <xdr:colOff>15120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3708,7 +3737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2189520" y="8766000"/>
-          <a:ext cx="1830240" cy="418680"/>
+          <a:ext cx="1829880" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3719,7 +3748,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -3751,9 +3780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3763,7 +3792,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2367360" y="8483760"/>
-          <a:ext cx="1800000" cy="485280"/>
+          <a:ext cx="1799640" cy="484920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3780,7 +3809,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3819,9 +3848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>126720</xdr:colOff>
+      <xdr:colOff>126360</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3831,7 +3860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="797760" y="10753560"/>
-          <a:ext cx="3333240" cy="1272960"/>
+          <a:ext cx="3332880" cy="1272600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3848,7 +3877,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3987,9 +4016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>667080</xdr:colOff>
+      <xdr:colOff>666720</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3999,7 +4028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2176920" y="10449000"/>
-          <a:ext cx="1827000" cy="418680"/>
+          <a:ext cx="1826640" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4010,7 +4039,7 @@
         <a:solidFill>
           <a:srgbClr val="4472c4"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="325490"/>
           </a:solidFill>
@@ -4043,338 +4072,338 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4402,16 +4431,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="35.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="4" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="4" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,13 +4866,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="30.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="21.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="36.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5280,32 +5309,32 @@
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L54" s="0" t="s">
+      <c r="L54" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L55" s="0" t="s">
+      <c r="L55" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5334,9 +5363,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="87.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="87.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,7 +5383,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -5362,7 +5391,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="57" t="s">
@@ -5370,7 +5399,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -5378,7 +5407,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -5386,7 +5415,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="57" t="s">
@@ -5394,7 +5423,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -5402,7 +5431,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -5410,7 +5439,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -5418,7 +5447,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="57" t="s">
@@ -5426,7 +5455,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -5439,7 +5468,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="57" t="s">
@@ -5447,7 +5476,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="57" t="s">
@@ -5455,7 +5484,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C17" s="57" t="s">
@@ -5463,7 +5492,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -5471,7 +5500,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="57" t="s">
@@ -5479,7 +5508,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -5487,7 +5516,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -5495,7 +5524,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="57" t="s">
@@ -5503,7 +5532,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="57" t="s">
@@ -5511,7 +5540,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -5519,7 +5548,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -5527,7 +5556,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="57" t="s">
@@ -5543,7 +5572,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="57" t="s">
@@ -5551,11 +5580,40 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="58" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/doc/詳細設計.xlsx
+++ b/doc/詳細設計.xlsx
@@ -14,7 +14,12 @@
     <sheet name="概念図" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="機能一覧" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="完成RESTfullTODOアプリ概念図" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="見本" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="エンジニアスキルシート" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="6" name="Excel_BuiltIn_Print_Area" vbProcedure="false">見本!$A$1:$M$57</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -218,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="195">
   <si>
     <t xml:space="preserve">機能</t>
   </si>
@@ -649,6 +654,223 @@
   </si>
   <si>
     <t xml:space="preserve">ヌルヌルっと動く画面遷移なしで使えるTODOリスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作成日：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スキルシート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふりがな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">りくなび　ねくすと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保有技術</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java、Ruby、Javascript、PHP、HTML、CSS
+Oracle、Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氏名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リクナビ NEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">職務要約</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20xx/xx～20xx/xx　 ○○○○株式会社
+20xx/xx/～現在　　　株式会社△△△△</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活かせる経験・知識</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要件定義から設計・開発と幅広い経験があり、全てのフェーズを経験。製造業、特に物流管理や生産管理に関しては、お客様と会話できるレベルの業務知識があります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">github
+https://github.com/xxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勤務先</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○○○○株式会社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">案件名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中堅建設業向け基幹システム(顧客管理) の保守プロジェクト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">環境・言語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">役割・役職</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+20xx/xx～20xx/xx
+（xカ月）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【概要】
+営業活動を効果的に行うため、顧客情報を管理(更新)し、WEB上にて提供するシステムの追加開発。メンバーとして帳票の詳細設計以降を担当。
+【ポイント】
+始めての長期プロジェクトに参画する中で、お客様・協力会社様とのコミュニケーションの大切さを学んだ。相手の意見をくみ取り、場合によっては図などを用い説明する大切さを学んだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows
+Java
+Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メンバー（PG）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">規模・人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要員数：4名（PJ 全体：150 人)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">担当工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要件定義</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本設計</t>
+  </si>
+  <si>
+    <t xml:space="preserve">詳細設計</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">単テスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結テスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保守運用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">●</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金属業向け生産管理システム構築</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【概要】
+生産・販売・原価を的確に管理するためのシステム導入プロジェクト。
+メンバーとして画面の作成、テスト環境構築を担当。
+【ポイント】
+始めての開発プロジェクトの中で開発の現場の基礎、ウォータフォール型の基礎を学ぶことができた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows
+VB10.0
+ACCESS/VBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メンバー（PG SE）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要員数：6名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">株式会社△△△△</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大手食品メーカー様 /生産管理・受発注システム開発プロジェクト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【概要】
+各営業所からの受発注データを本社DBへオンラインでWEBブラウザを用いて一元管理しているためのシステム。その中でデータベース、GUIの保守開発を担当。
+【ポイント】
+各営業所からのデータを集計し、リアルタイムに処理するという意味で非常にパフォーマンスが要求されるシステムであった。当初はパフォーマンスが出ずに、その原因を追究していく内にDBに問題がある事が判明。再設計を行いパフォーマンス改善に寄与した。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要員数：10名　(PJ 全体：90名)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大手化学メーカー様/販売管理、物流システム改善プロジェクト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+20xx/xx～
+現在
+（Xカ月）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【概要】
+ユーザー企業が利用する受注～売上の回収までを行うシステムの改善・保守を担当。サブシステムは受注・在庫・発注・債権・債務・その他に分かれており在庫システムのプロジェクトリーダーとして、スケジュール管理、人員管理、予算管理を担当。
+【ポイント】
+お客様との信頼関係が失われつつある中での参画で、非常に関係構築に気を使った。お客様内の各部署の意見調整・ベンダー調整をPLとして行い、またコスト管理と工程管理をしっかりと行う中でプロジェクトを成功させた。現在は保守フェーズに入っており、長期的に案件を任せていただけるようになった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux
+Java
+Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要員数：30名　(PJ 全体：70名)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自己PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+大学を卒業し、2社で経験を積んできました。要件定義から開発まで一貫した経験があり、管理も行いつつ開発ができる点が私の強みだと思っています。また基幹システムの経験があり、生産管理や顧客管理などの業務知識がある点も強みだと思います。
+今後は今までの経験を活用し、更に貴社にて成長し貢献して参りたいと思います。一度面接のお時間を頂戴できれば幸いでございます。よろしくお願い致します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　スキルシート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活かせる
+経験・知識</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポートフォリオ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">制作期間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実装した機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学習経歴</t>
   </si>
 </sst>
 </file>
@@ -659,7 +881,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -831,8 +1053,66 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFFCC00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFFCC00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,7 +1128,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -863,8 +1143,20 @@
         <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFB4C7E7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1123,6 +1415,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1152,7 +1472,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1389,6 +1709,114 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="6" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,7 +1843,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7E7"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1424,7 +1852,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFB4C7E7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -4065,6 +4493,406 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>186120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>535320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="186120" y="937440"/>
+          <a:ext cx="961920" cy="510480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="20160" rIns="20160" tIns="20160" bIns="20160" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>194040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>543240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>145080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="194040" y="1524240"/>
+          <a:ext cx="961920" cy="510480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="20160" rIns="20160" tIns="20160" bIns="20160" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5065200" y="426240"/>
+          <a:ext cx="969840" cy="511200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="20160" rIns="20160" tIns="20160" bIns="20160" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>194040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>543240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>213120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="194040" y="2301120"/>
+          <a:ext cx="961920" cy="510480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="20160" rIns="20160" tIns="20160" bIns="20160" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>194040</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>205920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>543240</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="194040" y="12009240"/>
+          <a:ext cx="961920" cy="510120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="20160" rIns="20160" tIns="20160" bIns="20160" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffcc00"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -4072,7 +4900,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -4423,7 +5251,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
@@ -4860,7 +5688,7 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5302,7 +6130,7 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5357,7 +6185,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5605,7 +6433,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5625,4 +6453,3665 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:IW59"/>
+  <sheetViews>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.2578125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="7.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="60" width="7.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="7.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="60" width="37.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="60" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="60" width="3.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="59" width="1.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="59" width="7.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="15" style="60" width="7.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="59"/>
+      <c r="BT1" s="59"/>
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
+      <c r="BX1" s="59"/>
+      <c r="BY1" s="59"/>
+      <c r="BZ1" s="59"/>
+      <c r="CA1" s="59"/>
+      <c r="CB1" s="59"/>
+      <c r="CC1" s="59"/>
+      <c r="CD1" s="59"/>
+      <c r="CE1" s="59"/>
+      <c r="CF1" s="59"/>
+      <c r="CG1" s="59"/>
+      <c r="CH1" s="59"/>
+      <c r="CI1" s="59"/>
+      <c r="CJ1" s="59"/>
+      <c r="CK1" s="59"/>
+      <c r="CL1" s="59"/>
+      <c r="CM1" s="59"/>
+      <c r="CN1" s="59"/>
+      <c r="CO1" s="59"/>
+      <c r="CP1" s="59"/>
+      <c r="CQ1" s="59"/>
+      <c r="CR1" s="59"/>
+      <c r="CS1" s="59"/>
+      <c r="CT1" s="59"/>
+      <c r="CU1" s="59"/>
+      <c r="CV1" s="59"/>
+      <c r="CW1" s="59"/>
+      <c r="CX1" s="59"/>
+      <c r="CY1" s="59"/>
+      <c r="CZ1" s="59"/>
+      <c r="DA1" s="59"/>
+      <c r="DB1" s="59"/>
+      <c r="DC1" s="59"/>
+      <c r="DD1" s="59"/>
+      <c r="DE1" s="59"/>
+      <c r="DF1" s="59"/>
+      <c r="DG1" s="59"/>
+      <c r="DH1" s="59"/>
+      <c r="DI1" s="59"/>
+      <c r="DJ1" s="59"/>
+      <c r="DK1" s="59"/>
+      <c r="DL1" s="59"/>
+      <c r="DM1" s="59"/>
+      <c r="DN1" s="59"/>
+      <c r="DO1" s="59"/>
+      <c r="DP1" s="59"/>
+      <c r="DQ1" s="59"/>
+      <c r="DR1" s="59"/>
+      <c r="DS1" s="59"/>
+      <c r="DT1" s="59"/>
+      <c r="DU1" s="59"/>
+      <c r="DV1" s="59"/>
+      <c r="DW1" s="59"/>
+      <c r="DX1" s="59"/>
+      <c r="DY1" s="59"/>
+      <c r="DZ1" s="59"/>
+      <c r="EA1" s="59"/>
+      <c r="EB1" s="59"/>
+      <c r="EC1" s="59"/>
+      <c r="ED1" s="59"/>
+      <c r="EE1" s="59"/>
+      <c r="EF1" s="59"/>
+      <c r="EG1" s="59"/>
+      <c r="EH1" s="59"/>
+      <c r="EI1" s="59"/>
+      <c r="EJ1" s="59"/>
+      <c r="EK1" s="59"/>
+      <c r="EL1" s="59"/>
+      <c r="EM1" s="59"/>
+      <c r="EN1" s="59"/>
+      <c r="EO1" s="59"/>
+      <c r="EP1" s="59"/>
+      <c r="EQ1" s="59"/>
+      <c r="ER1" s="59"/>
+      <c r="ES1" s="59"/>
+      <c r="ET1" s="59"/>
+      <c r="EU1" s="59"/>
+      <c r="EV1" s="59"/>
+      <c r="EW1" s="59"/>
+      <c r="EX1" s="59"/>
+      <c r="EY1" s="59"/>
+      <c r="EZ1" s="59"/>
+      <c r="FA1" s="59"/>
+      <c r="FB1" s="59"/>
+      <c r="FC1" s="59"/>
+      <c r="FD1" s="59"/>
+      <c r="FE1" s="59"/>
+      <c r="FF1" s="59"/>
+      <c r="FG1" s="59"/>
+      <c r="FH1" s="59"/>
+      <c r="FI1" s="59"/>
+      <c r="FJ1" s="59"/>
+      <c r="FK1" s="59"/>
+      <c r="FL1" s="59"/>
+      <c r="FM1" s="59"/>
+      <c r="FN1" s="59"/>
+      <c r="FO1" s="59"/>
+      <c r="FP1" s="59"/>
+      <c r="FQ1" s="59"/>
+      <c r="FR1" s="59"/>
+      <c r="FS1" s="59"/>
+      <c r="FT1" s="59"/>
+      <c r="FU1" s="59"/>
+      <c r="FV1" s="59"/>
+      <c r="FW1" s="59"/>
+      <c r="FX1" s="59"/>
+      <c r="FY1" s="59"/>
+      <c r="FZ1" s="59"/>
+      <c r="GA1" s="59"/>
+      <c r="GB1" s="59"/>
+      <c r="GC1" s="59"/>
+      <c r="GD1" s="59"/>
+      <c r="GE1" s="59"/>
+      <c r="GF1" s="59"/>
+      <c r="GG1" s="59"/>
+      <c r="GH1" s="59"/>
+      <c r="GI1" s="59"/>
+      <c r="GJ1" s="59"/>
+      <c r="GK1" s="59"/>
+      <c r="GL1" s="59"/>
+      <c r="GM1" s="59"/>
+      <c r="GN1" s="59"/>
+      <c r="GO1" s="59"/>
+      <c r="GP1" s="59"/>
+      <c r="GQ1" s="59"/>
+      <c r="GR1" s="59"/>
+      <c r="GS1" s="59"/>
+      <c r="GT1" s="59"/>
+      <c r="GU1" s="59"/>
+      <c r="GV1" s="59"/>
+      <c r="GW1" s="59"/>
+      <c r="GX1" s="59"/>
+      <c r="GY1" s="59"/>
+      <c r="GZ1" s="59"/>
+      <c r="HA1" s="59"/>
+      <c r="HB1" s="59"/>
+      <c r="HC1" s="59"/>
+      <c r="HD1" s="59"/>
+      <c r="HE1" s="59"/>
+      <c r="HF1" s="59"/>
+      <c r="HG1" s="59"/>
+      <c r="HH1" s="59"/>
+      <c r="HI1" s="59"/>
+      <c r="HJ1" s="59"/>
+      <c r="HK1" s="59"/>
+      <c r="HL1" s="59"/>
+      <c r="HM1" s="59"/>
+      <c r="HN1" s="59"/>
+      <c r="HO1" s="59"/>
+      <c r="HP1" s="59"/>
+      <c r="HQ1" s="59"/>
+      <c r="HR1" s="59"/>
+      <c r="HS1" s="59"/>
+      <c r="HT1" s="59"/>
+      <c r="HU1" s="59"/>
+      <c r="HV1" s="59"/>
+      <c r="HW1" s="59"/>
+      <c r="HX1" s="59"/>
+      <c r="HY1" s="59"/>
+      <c r="HZ1" s="59"/>
+      <c r="IA1" s="59"/>
+      <c r="IB1" s="59"/>
+      <c r="IC1" s="59"/>
+      <c r="ID1" s="59"/>
+      <c r="IE1" s="59"/>
+      <c r="IF1" s="59"/>
+      <c r="IG1" s="59"/>
+      <c r="IH1" s="59"/>
+      <c r="II1" s="59"/>
+      <c r="IJ1" s="59"/>
+      <c r="IK1" s="59"/>
+      <c r="IL1" s="59"/>
+      <c r="IM1" s="59"/>
+      <c r="IN1" s="59"/>
+      <c r="IO1" s="59"/>
+      <c r="IP1" s="59"/>
+      <c r="IQ1" s="59"/>
+      <c r="IR1" s="59"/>
+      <c r="IS1" s="59"/>
+      <c r="IT1" s="59"/>
+      <c r="IU1" s="59"/>
+      <c r="IV1" s="59"/>
+      <c r="IW1" s="59"/>
+    </row>
+    <row r="2" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="59"/>
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="59"/>
+      <c r="BU2" s="59"/>
+      <c r="BV2" s="59"/>
+      <c r="BW2" s="59"/>
+      <c r="BX2" s="59"/>
+      <c r="BY2" s="59"/>
+      <c r="BZ2" s="59"/>
+      <c r="CA2" s="59"/>
+      <c r="CB2" s="59"/>
+      <c r="CC2" s="59"/>
+      <c r="CD2" s="59"/>
+      <c r="CE2" s="59"/>
+      <c r="CF2" s="59"/>
+      <c r="CG2" s="59"/>
+      <c r="CH2" s="59"/>
+      <c r="CI2" s="59"/>
+      <c r="CJ2" s="59"/>
+      <c r="CK2" s="59"/>
+      <c r="CL2" s="59"/>
+      <c r="CM2" s="59"/>
+      <c r="CN2" s="59"/>
+      <c r="CO2" s="59"/>
+      <c r="CP2" s="59"/>
+      <c r="CQ2" s="59"/>
+      <c r="CR2" s="59"/>
+      <c r="CS2" s="59"/>
+      <c r="CT2" s="59"/>
+      <c r="CU2" s="59"/>
+      <c r="CV2" s="59"/>
+      <c r="CW2" s="59"/>
+      <c r="CX2" s="59"/>
+      <c r="CY2" s="59"/>
+      <c r="CZ2" s="59"/>
+      <c r="DA2" s="59"/>
+      <c r="DB2" s="59"/>
+      <c r="DC2" s="59"/>
+      <c r="DD2" s="59"/>
+      <c r="DE2" s="59"/>
+      <c r="DF2" s="59"/>
+      <c r="DG2" s="59"/>
+      <c r="DH2" s="59"/>
+      <c r="DI2" s="59"/>
+      <c r="DJ2" s="59"/>
+      <c r="DK2" s="59"/>
+      <c r="DL2" s="59"/>
+      <c r="DM2" s="59"/>
+      <c r="DN2" s="59"/>
+      <c r="DO2" s="59"/>
+      <c r="DP2" s="59"/>
+      <c r="DQ2" s="59"/>
+      <c r="DR2" s="59"/>
+      <c r="DS2" s="59"/>
+      <c r="DT2" s="59"/>
+      <c r="DU2" s="59"/>
+      <c r="DV2" s="59"/>
+      <c r="DW2" s="59"/>
+      <c r="DX2" s="59"/>
+      <c r="DY2" s="59"/>
+      <c r="DZ2" s="59"/>
+      <c r="EA2" s="59"/>
+      <c r="EB2" s="59"/>
+      <c r="EC2" s="59"/>
+      <c r="ED2" s="59"/>
+      <c r="EE2" s="59"/>
+      <c r="EF2" s="59"/>
+      <c r="EG2" s="59"/>
+      <c r="EH2" s="59"/>
+      <c r="EI2" s="59"/>
+      <c r="EJ2" s="59"/>
+      <c r="EK2" s="59"/>
+      <c r="EL2" s="59"/>
+      <c r="EM2" s="59"/>
+      <c r="EN2" s="59"/>
+      <c r="EO2" s="59"/>
+      <c r="EP2" s="59"/>
+      <c r="EQ2" s="59"/>
+      <c r="ER2" s="59"/>
+      <c r="ES2" s="59"/>
+      <c r="ET2" s="59"/>
+      <c r="EU2" s="59"/>
+      <c r="EV2" s="59"/>
+      <c r="EW2" s="59"/>
+      <c r="EX2" s="59"/>
+      <c r="EY2" s="59"/>
+      <c r="EZ2" s="59"/>
+      <c r="FA2" s="59"/>
+      <c r="FB2" s="59"/>
+      <c r="FC2" s="59"/>
+      <c r="FD2" s="59"/>
+      <c r="FE2" s="59"/>
+      <c r="FF2" s="59"/>
+      <c r="FG2" s="59"/>
+      <c r="FH2" s="59"/>
+      <c r="FI2" s="59"/>
+      <c r="FJ2" s="59"/>
+      <c r="FK2" s="59"/>
+      <c r="FL2" s="59"/>
+      <c r="FM2" s="59"/>
+      <c r="FN2" s="59"/>
+      <c r="FO2" s="59"/>
+      <c r="FP2" s="59"/>
+      <c r="FQ2" s="59"/>
+      <c r="FR2" s="59"/>
+      <c r="FS2" s="59"/>
+      <c r="FT2" s="59"/>
+      <c r="FU2" s="59"/>
+      <c r="FV2" s="59"/>
+      <c r="FW2" s="59"/>
+      <c r="FX2" s="59"/>
+      <c r="FY2" s="59"/>
+      <c r="FZ2" s="59"/>
+      <c r="GA2" s="59"/>
+      <c r="GB2" s="59"/>
+      <c r="GC2" s="59"/>
+      <c r="GD2" s="59"/>
+      <c r="GE2" s="59"/>
+      <c r="GF2" s="59"/>
+      <c r="GG2" s="59"/>
+      <c r="GH2" s="59"/>
+      <c r="GI2" s="59"/>
+      <c r="GJ2" s="59"/>
+      <c r="GK2" s="59"/>
+      <c r="GL2" s="59"/>
+      <c r="GM2" s="59"/>
+      <c r="GN2" s="59"/>
+      <c r="GO2" s="59"/>
+      <c r="GP2" s="59"/>
+      <c r="GQ2" s="59"/>
+      <c r="GR2" s="59"/>
+      <c r="GS2" s="59"/>
+      <c r="GT2" s="59"/>
+      <c r="GU2" s="59"/>
+      <c r="GV2" s="59"/>
+      <c r="GW2" s="59"/>
+      <c r="GX2" s="59"/>
+      <c r="GY2" s="59"/>
+      <c r="GZ2" s="59"/>
+      <c r="HA2" s="59"/>
+      <c r="HB2" s="59"/>
+      <c r="HC2" s="59"/>
+      <c r="HD2" s="59"/>
+      <c r="HE2" s="59"/>
+      <c r="HF2" s="59"/>
+      <c r="HG2" s="59"/>
+      <c r="HH2" s="59"/>
+      <c r="HI2" s="59"/>
+      <c r="HJ2" s="59"/>
+      <c r="HK2" s="59"/>
+      <c r="HL2" s="59"/>
+      <c r="HM2" s="59"/>
+      <c r="HN2" s="59"/>
+      <c r="HO2" s="59"/>
+      <c r="HP2" s="59"/>
+      <c r="HQ2" s="59"/>
+      <c r="HR2" s="59"/>
+      <c r="HS2" s="59"/>
+      <c r="HT2" s="59"/>
+      <c r="HU2" s="59"/>
+      <c r="HV2" s="59"/>
+      <c r="HW2" s="59"/>
+      <c r="HX2" s="59"/>
+      <c r="HY2" s="59"/>
+      <c r="HZ2" s="59"/>
+      <c r="IA2" s="59"/>
+      <c r="IB2" s="59"/>
+      <c r="IC2" s="59"/>
+      <c r="ID2" s="59"/>
+      <c r="IE2" s="59"/>
+      <c r="IF2" s="59"/>
+      <c r="IG2" s="59"/>
+      <c r="IH2" s="59"/>
+      <c r="II2" s="59"/>
+      <c r="IJ2" s="59"/>
+      <c r="IK2" s="59"/>
+      <c r="IL2" s="59"/>
+      <c r="IM2" s="59"/>
+      <c r="IN2" s="59"/>
+      <c r="IO2" s="59"/>
+      <c r="IP2" s="59"/>
+      <c r="IQ2" s="59"/>
+      <c r="IR2" s="59"/>
+      <c r="IS2" s="59"/>
+      <c r="IT2" s="59"/>
+      <c r="IU2" s="59"/>
+      <c r="IV2" s="59"/>
+      <c r="IW2" s="59"/>
+    </row>
+    <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+    </row>
+    <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+    </row>
+    <row r="6" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="64"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+    </row>
+    <row r="8" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="66"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="59"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
+      <c r="BJ10" s="59"/>
+      <c r="BK10" s="59"/>
+      <c r="BL10" s="59"/>
+      <c r="BM10" s="59"/>
+      <c r="BN10" s="59"/>
+      <c r="BO10" s="59"/>
+      <c r="BP10" s="59"/>
+      <c r="BQ10" s="59"/>
+      <c r="BR10" s="59"/>
+      <c r="BS10" s="59"/>
+      <c r="BT10" s="59"/>
+      <c r="BU10" s="59"/>
+      <c r="BV10" s="59"/>
+      <c r="BW10" s="59"/>
+      <c r="BX10" s="59"/>
+      <c r="BY10" s="59"/>
+      <c r="BZ10" s="59"/>
+      <c r="CA10" s="59"/>
+      <c r="CB10" s="59"/>
+      <c r="CC10" s="59"/>
+      <c r="CD10" s="59"/>
+      <c r="CE10" s="59"/>
+      <c r="CF10" s="59"/>
+      <c r="CG10" s="59"/>
+      <c r="CH10" s="59"/>
+      <c r="CI10" s="59"/>
+      <c r="CJ10" s="59"/>
+      <c r="CK10" s="59"/>
+      <c r="CL10" s="59"/>
+      <c r="CM10" s="59"/>
+      <c r="CN10" s="59"/>
+      <c r="CO10" s="59"/>
+      <c r="CP10" s="59"/>
+      <c r="CQ10" s="59"/>
+      <c r="CR10" s="59"/>
+      <c r="CS10" s="59"/>
+      <c r="CT10" s="59"/>
+      <c r="CU10" s="59"/>
+      <c r="CV10" s="59"/>
+      <c r="CW10" s="59"/>
+      <c r="CX10" s="59"/>
+      <c r="CY10" s="59"/>
+      <c r="CZ10" s="59"/>
+      <c r="DA10" s="59"/>
+      <c r="DB10" s="59"/>
+      <c r="DC10" s="59"/>
+      <c r="DD10" s="59"/>
+      <c r="DE10" s="59"/>
+      <c r="DF10" s="59"/>
+      <c r="DG10" s="59"/>
+      <c r="DH10" s="59"/>
+      <c r="DI10" s="59"/>
+      <c r="DJ10" s="59"/>
+      <c r="DK10" s="59"/>
+      <c r="DL10" s="59"/>
+      <c r="DM10" s="59"/>
+      <c r="DN10" s="59"/>
+      <c r="DO10" s="59"/>
+      <c r="DP10" s="59"/>
+      <c r="DQ10" s="59"/>
+      <c r="DR10" s="59"/>
+      <c r="DS10" s="59"/>
+      <c r="DT10" s="59"/>
+      <c r="DU10" s="59"/>
+      <c r="DV10" s="59"/>
+      <c r="DW10" s="59"/>
+      <c r="DX10" s="59"/>
+      <c r="DY10" s="59"/>
+      <c r="DZ10" s="59"/>
+      <c r="EA10" s="59"/>
+      <c r="EB10" s="59"/>
+      <c r="EC10" s="59"/>
+      <c r="ED10" s="59"/>
+      <c r="EE10" s="59"/>
+      <c r="EF10" s="59"/>
+      <c r="EG10" s="59"/>
+      <c r="EH10" s="59"/>
+      <c r="EI10" s="59"/>
+      <c r="EJ10" s="59"/>
+      <c r="EK10" s="59"/>
+      <c r="EL10" s="59"/>
+      <c r="EM10" s="59"/>
+      <c r="EN10" s="59"/>
+      <c r="EO10" s="59"/>
+      <c r="EP10" s="59"/>
+      <c r="EQ10" s="59"/>
+      <c r="ER10" s="59"/>
+      <c r="ES10" s="59"/>
+      <c r="ET10" s="59"/>
+      <c r="EU10" s="59"/>
+      <c r="EV10" s="59"/>
+      <c r="EW10" s="59"/>
+      <c r="EX10" s="59"/>
+      <c r="EY10" s="59"/>
+      <c r="EZ10" s="59"/>
+      <c r="FA10" s="59"/>
+      <c r="FB10" s="59"/>
+      <c r="FC10" s="59"/>
+      <c r="FD10" s="59"/>
+      <c r="FE10" s="59"/>
+      <c r="FF10" s="59"/>
+      <c r="FG10" s="59"/>
+      <c r="FH10" s="59"/>
+      <c r="FI10" s="59"/>
+      <c r="FJ10" s="59"/>
+      <c r="FK10" s="59"/>
+      <c r="FL10" s="59"/>
+      <c r="FM10" s="59"/>
+      <c r="FN10" s="59"/>
+      <c r="FO10" s="59"/>
+      <c r="FP10" s="59"/>
+      <c r="FQ10" s="59"/>
+      <c r="FR10" s="59"/>
+      <c r="FS10" s="59"/>
+      <c r="FT10" s="59"/>
+      <c r="FU10" s="59"/>
+      <c r="FV10" s="59"/>
+      <c r="FW10" s="59"/>
+      <c r="FX10" s="59"/>
+      <c r="FY10" s="59"/>
+      <c r="FZ10" s="59"/>
+      <c r="GA10" s="59"/>
+      <c r="GB10" s="59"/>
+      <c r="GC10" s="59"/>
+      <c r="GD10" s="59"/>
+      <c r="GE10" s="59"/>
+      <c r="GF10" s="59"/>
+      <c r="GG10" s="59"/>
+      <c r="GH10" s="59"/>
+      <c r="GI10" s="59"/>
+      <c r="GJ10" s="59"/>
+      <c r="GK10" s="59"/>
+      <c r="GL10" s="59"/>
+      <c r="GM10" s="59"/>
+      <c r="GN10" s="59"/>
+      <c r="GO10" s="59"/>
+      <c r="GP10" s="59"/>
+      <c r="GQ10" s="59"/>
+      <c r="GR10" s="59"/>
+      <c r="GS10" s="59"/>
+      <c r="GT10" s="59"/>
+      <c r="GU10" s="59"/>
+      <c r="GV10" s="59"/>
+      <c r="GW10" s="59"/>
+      <c r="GX10" s="59"/>
+      <c r="GY10" s="59"/>
+      <c r="GZ10" s="59"/>
+      <c r="HA10" s="59"/>
+      <c r="HB10" s="59"/>
+      <c r="HC10" s="59"/>
+      <c r="HD10" s="59"/>
+      <c r="HE10" s="59"/>
+      <c r="HF10" s="59"/>
+      <c r="HG10" s="59"/>
+      <c r="HH10" s="59"/>
+      <c r="HI10" s="59"/>
+      <c r="HJ10" s="59"/>
+      <c r="HK10" s="59"/>
+      <c r="HL10" s="59"/>
+      <c r="HM10" s="59"/>
+      <c r="HN10" s="59"/>
+      <c r="HO10" s="59"/>
+      <c r="HP10" s="59"/>
+      <c r="HQ10" s="59"/>
+      <c r="HR10" s="59"/>
+      <c r="HS10" s="59"/>
+      <c r="HT10" s="59"/>
+      <c r="HU10" s="59"/>
+      <c r="HV10" s="59"/>
+      <c r="HW10" s="59"/>
+      <c r="HX10" s="59"/>
+      <c r="HY10" s="59"/>
+      <c r="HZ10" s="59"/>
+      <c r="IA10" s="59"/>
+      <c r="IB10" s="59"/>
+      <c r="IC10" s="59"/>
+      <c r="ID10" s="59"/>
+      <c r="IE10" s="59"/>
+      <c r="IF10" s="59"/>
+      <c r="IG10" s="59"/>
+      <c r="IH10" s="59"/>
+      <c r="II10" s="59"/>
+      <c r="IJ10" s="59"/>
+      <c r="IK10" s="59"/>
+      <c r="IL10" s="59"/>
+      <c r="IM10" s="59"/>
+      <c r="IN10" s="59"/>
+      <c r="IO10" s="59"/>
+      <c r="IP10" s="59"/>
+      <c r="IQ10" s="59"/>
+      <c r="IR10" s="59"/>
+      <c r="IS10" s="59"/>
+      <c r="IT10" s="59"/>
+      <c r="IU10" s="59"/>
+      <c r="IV10" s="59"/>
+      <c r="IW10" s="59"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+    </row>
+    <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="73"/>
+    </row>
+    <row r="14" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="73"/>
+    </row>
+    <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="73"/>
+    </row>
+    <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="73"/>
+    </row>
+    <row r="18" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+    </row>
+    <row r="21" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="71"/>
+      <c r="E21" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+    </row>
+    <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="73"/>
+    </row>
+    <row r="23" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="73"/>
+    </row>
+    <row r="24" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="73"/>
+    </row>
+    <row r="25" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="73"/>
+    </row>
+    <row r="26" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="73"/>
+    </row>
+    <row r="27" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+    </row>
+    <row r="28" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="O28" s="76"/>
+    </row>
+    <row r="29" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="75"/>
+      <c r="O29" s="76"/>
+    </row>
+    <row r="30" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="59"/>
+      <c r="AS30" s="59"/>
+      <c r="AT30" s="59"/>
+      <c r="AU30" s="59"/>
+      <c r="AV30" s="59"/>
+      <c r="AW30" s="59"/>
+      <c r="AX30" s="59"/>
+      <c r="AY30" s="59"/>
+      <c r="AZ30" s="59"/>
+      <c r="BA30" s="59"/>
+      <c r="BB30" s="59"/>
+      <c r="BC30" s="59"/>
+      <c r="BD30" s="59"/>
+      <c r="BE30" s="59"/>
+      <c r="BF30" s="59"/>
+      <c r="BG30" s="59"/>
+      <c r="BH30" s="59"/>
+      <c r="BI30" s="59"/>
+      <c r="BJ30" s="59"/>
+      <c r="BK30" s="59"/>
+      <c r="BL30" s="59"/>
+      <c r="BM30" s="59"/>
+      <c r="BN30" s="59"/>
+      <c r="BO30" s="59"/>
+      <c r="BP30" s="59"/>
+      <c r="BQ30" s="59"/>
+      <c r="BR30" s="59"/>
+      <c r="BS30" s="59"/>
+      <c r="BT30" s="59"/>
+      <c r="BU30" s="59"/>
+      <c r="BV30" s="59"/>
+      <c r="BW30" s="59"/>
+      <c r="BX30" s="59"/>
+      <c r="BY30" s="59"/>
+      <c r="BZ30" s="59"/>
+      <c r="CA30" s="59"/>
+      <c r="CB30" s="59"/>
+      <c r="CC30" s="59"/>
+      <c r="CD30" s="59"/>
+      <c r="CE30" s="59"/>
+      <c r="CF30" s="59"/>
+      <c r="CG30" s="59"/>
+      <c r="CH30" s="59"/>
+      <c r="CI30" s="59"/>
+      <c r="CJ30" s="59"/>
+      <c r="CK30" s="59"/>
+      <c r="CL30" s="59"/>
+      <c r="CM30" s="59"/>
+      <c r="CN30" s="59"/>
+      <c r="CO30" s="59"/>
+      <c r="CP30" s="59"/>
+      <c r="CQ30" s="59"/>
+      <c r="CR30" s="59"/>
+      <c r="CS30" s="59"/>
+      <c r="CT30" s="59"/>
+      <c r="CU30" s="59"/>
+      <c r="CV30" s="59"/>
+      <c r="CW30" s="59"/>
+      <c r="CX30" s="59"/>
+      <c r="CY30" s="59"/>
+      <c r="CZ30" s="59"/>
+      <c r="DA30" s="59"/>
+      <c r="DB30" s="59"/>
+      <c r="DC30" s="59"/>
+      <c r="DD30" s="59"/>
+      <c r="DE30" s="59"/>
+      <c r="DF30" s="59"/>
+      <c r="DG30" s="59"/>
+      <c r="DH30" s="59"/>
+      <c r="DI30" s="59"/>
+      <c r="DJ30" s="59"/>
+      <c r="DK30" s="59"/>
+      <c r="DL30" s="59"/>
+      <c r="DM30" s="59"/>
+      <c r="DN30" s="59"/>
+      <c r="DO30" s="59"/>
+      <c r="DP30" s="59"/>
+      <c r="DQ30" s="59"/>
+      <c r="DR30" s="59"/>
+      <c r="DS30" s="59"/>
+      <c r="DT30" s="59"/>
+      <c r="DU30" s="59"/>
+      <c r="DV30" s="59"/>
+      <c r="DW30" s="59"/>
+      <c r="DX30" s="59"/>
+      <c r="DY30" s="59"/>
+      <c r="DZ30" s="59"/>
+      <c r="EA30" s="59"/>
+      <c r="EB30" s="59"/>
+      <c r="EC30" s="59"/>
+      <c r="ED30" s="59"/>
+      <c r="EE30" s="59"/>
+      <c r="EF30" s="59"/>
+      <c r="EG30" s="59"/>
+      <c r="EH30" s="59"/>
+      <c r="EI30" s="59"/>
+      <c r="EJ30" s="59"/>
+      <c r="EK30" s="59"/>
+      <c r="EL30" s="59"/>
+      <c r="EM30" s="59"/>
+      <c r="EN30" s="59"/>
+      <c r="EO30" s="59"/>
+      <c r="EP30" s="59"/>
+      <c r="EQ30" s="59"/>
+      <c r="ER30" s="59"/>
+      <c r="ES30" s="59"/>
+      <c r="ET30" s="59"/>
+      <c r="EU30" s="59"/>
+      <c r="EV30" s="59"/>
+      <c r="EW30" s="59"/>
+      <c r="EX30" s="59"/>
+      <c r="EY30" s="59"/>
+      <c r="EZ30" s="59"/>
+      <c r="FA30" s="59"/>
+      <c r="FB30" s="59"/>
+      <c r="FC30" s="59"/>
+      <c r="FD30" s="59"/>
+      <c r="FE30" s="59"/>
+      <c r="FF30" s="59"/>
+      <c r="FG30" s="59"/>
+      <c r="FH30" s="59"/>
+      <c r="FI30" s="59"/>
+      <c r="FJ30" s="59"/>
+      <c r="FK30" s="59"/>
+      <c r="FL30" s="59"/>
+      <c r="FM30" s="59"/>
+      <c r="FN30" s="59"/>
+      <c r="FO30" s="59"/>
+      <c r="FP30" s="59"/>
+      <c r="FQ30" s="59"/>
+      <c r="FR30" s="59"/>
+      <c r="FS30" s="59"/>
+      <c r="FT30" s="59"/>
+      <c r="FU30" s="59"/>
+      <c r="FV30" s="59"/>
+      <c r="FW30" s="59"/>
+      <c r="FX30" s="59"/>
+      <c r="FY30" s="59"/>
+      <c r="FZ30" s="59"/>
+      <c r="GA30" s="59"/>
+      <c r="GB30" s="59"/>
+      <c r="GC30" s="59"/>
+      <c r="GD30" s="59"/>
+      <c r="GE30" s="59"/>
+      <c r="GF30" s="59"/>
+      <c r="GG30" s="59"/>
+      <c r="GH30" s="59"/>
+      <c r="GI30" s="59"/>
+      <c r="GJ30" s="59"/>
+      <c r="GK30" s="59"/>
+      <c r="GL30" s="59"/>
+      <c r="GM30" s="59"/>
+      <c r="GN30" s="59"/>
+      <c r="GO30" s="59"/>
+      <c r="GP30" s="59"/>
+      <c r="GQ30" s="59"/>
+      <c r="GR30" s="59"/>
+      <c r="GS30" s="59"/>
+      <c r="GT30" s="59"/>
+      <c r="GU30" s="59"/>
+      <c r="GV30" s="59"/>
+      <c r="GW30" s="59"/>
+      <c r="GX30" s="59"/>
+      <c r="GY30" s="59"/>
+      <c r="GZ30" s="59"/>
+      <c r="HA30" s="59"/>
+      <c r="HB30" s="59"/>
+      <c r="HC30" s="59"/>
+      <c r="HD30" s="59"/>
+      <c r="HE30" s="59"/>
+      <c r="HF30" s="59"/>
+      <c r="HG30" s="59"/>
+      <c r="HH30" s="59"/>
+      <c r="HI30" s="59"/>
+      <c r="HJ30" s="59"/>
+      <c r="HK30" s="59"/>
+      <c r="HL30" s="59"/>
+      <c r="HM30" s="59"/>
+      <c r="HN30" s="59"/>
+      <c r="HO30" s="59"/>
+      <c r="HP30" s="59"/>
+      <c r="HQ30" s="59"/>
+      <c r="HR30" s="59"/>
+      <c r="HS30" s="59"/>
+      <c r="HT30" s="59"/>
+      <c r="HU30" s="59"/>
+      <c r="HV30" s="59"/>
+      <c r="HW30" s="59"/>
+      <c r="HX30" s="59"/>
+      <c r="HY30" s="59"/>
+      <c r="HZ30" s="59"/>
+      <c r="IA30" s="59"/>
+      <c r="IB30" s="59"/>
+      <c r="IC30" s="59"/>
+      <c r="ID30" s="59"/>
+      <c r="IE30" s="59"/>
+      <c r="IF30" s="59"/>
+      <c r="IG30" s="59"/>
+      <c r="IH30" s="59"/>
+      <c r="II30" s="59"/>
+      <c r="IJ30" s="59"/>
+      <c r="IK30" s="59"/>
+      <c r="IL30" s="59"/>
+      <c r="IM30" s="59"/>
+      <c r="IN30" s="59"/>
+      <c r="IO30" s="59"/>
+      <c r="IP30" s="59"/>
+      <c r="IQ30" s="59"/>
+      <c r="IR30" s="59"/>
+      <c r="IS30" s="59"/>
+      <c r="IT30" s="59"/>
+      <c r="IU30" s="59"/>
+      <c r="IV30" s="59"/>
+      <c r="IW30" s="59"/>
+    </row>
+    <row r="31" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="O31" s="76"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="71"/>
+      <c r="E32" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="O32" s="76"/>
+    </row>
+    <row r="33" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="73"/>
+      <c r="O33" s="76"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="73"/>
+      <c r="O34" s="76"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="73"/>
+      <c r="O35" s="76"/>
+    </row>
+    <row r="36" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="73"/>
+      <c r="O36" s="76"/>
+    </row>
+    <row r="37" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="73"/>
+      <c r="O37" s="76"/>
+    </row>
+    <row r="38" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+    </row>
+    <row r="39" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="L39" s="74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="K40" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+    </row>
+    <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="73"/>
+    </row>
+    <row r="43" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="73"/>
+    </row>
+    <row r="44" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="73"/>
+    </row>
+    <row r="45" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="73"/>
+    </row>
+    <row r="46" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="73"/>
+    </row>
+    <row r="47" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+    </row>
+    <row r="48" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="J48" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="K48" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="L48" s="74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+    </row>
+    <row r="50" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="N50" s="60"/>
+    </row>
+    <row r="51" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="N51" s="60"/>
+    </row>
+    <row r="52" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="N52" s="60"/>
+    </row>
+    <row r="53" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="N53" s="60"/>
+    </row>
+    <row r="54" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="N54" s="60"/>
+    </row>
+    <row r="55" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="N55" s="60"/>
+    </row>
+    <row r="56" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+      <c r="N56" s="60"/>
+    </row>
+    <row r="57" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="59"/>
+      <c r="AC57" s="59"/>
+      <c r="AD57" s="59"/>
+      <c r="AE57" s="59"/>
+      <c r="AF57" s="59"/>
+      <c r="AG57" s="59"/>
+      <c r="AH57" s="59"/>
+      <c r="AI57" s="59"/>
+      <c r="AJ57" s="59"/>
+      <c r="AK57" s="59"/>
+      <c r="AL57" s="59"/>
+      <c r="AM57" s="59"/>
+      <c r="AN57" s="59"/>
+      <c r="AO57" s="59"/>
+      <c r="AP57" s="59"/>
+      <c r="AQ57" s="59"/>
+      <c r="AR57" s="59"/>
+      <c r="AS57" s="59"/>
+      <c r="AT57" s="59"/>
+      <c r="AU57" s="59"/>
+      <c r="AV57" s="59"/>
+      <c r="AW57" s="59"/>
+      <c r="AX57" s="59"/>
+      <c r="AY57" s="59"/>
+      <c r="AZ57" s="59"/>
+      <c r="BA57" s="59"/>
+      <c r="BB57" s="59"/>
+      <c r="BC57" s="59"/>
+      <c r="BD57" s="59"/>
+      <c r="BE57" s="59"/>
+      <c r="BF57" s="59"/>
+      <c r="BG57" s="59"/>
+      <c r="BH57" s="59"/>
+      <c r="BI57" s="59"/>
+      <c r="BJ57" s="59"/>
+      <c r="BK57" s="59"/>
+      <c r="BL57" s="59"/>
+      <c r="BM57" s="59"/>
+      <c r="BN57" s="59"/>
+      <c r="BO57" s="59"/>
+      <c r="BP57" s="59"/>
+      <c r="BQ57" s="59"/>
+      <c r="BR57" s="59"/>
+      <c r="BS57" s="59"/>
+      <c r="BT57" s="59"/>
+      <c r="BU57" s="59"/>
+      <c r="BV57" s="59"/>
+      <c r="BW57" s="59"/>
+      <c r="BX57" s="59"/>
+      <c r="BY57" s="59"/>
+      <c r="BZ57" s="59"/>
+      <c r="CA57" s="59"/>
+      <c r="CB57" s="59"/>
+      <c r="CC57" s="59"/>
+      <c r="CD57" s="59"/>
+      <c r="CE57" s="59"/>
+      <c r="CF57" s="59"/>
+      <c r="CG57" s="59"/>
+      <c r="CH57" s="59"/>
+      <c r="CI57" s="59"/>
+      <c r="CJ57" s="59"/>
+      <c r="CK57" s="59"/>
+      <c r="CL57" s="59"/>
+      <c r="CM57" s="59"/>
+      <c r="CN57" s="59"/>
+      <c r="CO57" s="59"/>
+      <c r="CP57" s="59"/>
+      <c r="CQ57" s="59"/>
+      <c r="CR57" s="59"/>
+      <c r="CS57" s="59"/>
+      <c r="CT57" s="59"/>
+      <c r="CU57" s="59"/>
+      <c r="CV57" s="59"/>
+      <c r="CW57" s="59"/>
+      <c r="CX57" s="59"/>
+      <c r="CY57" s="59"/>
+      <c r="CZ57" s="59"/>
+      <c r="DA57" s="59"/>
+      <c r="DB57" s="59"/>
+      <c r="DC57" s="59"/>
+      <c r="DD57" s="59"/>
+      <c r="DE57" s="59"/>
+      <c r="DF57" s="59"/>
+      <c r="DG57" s="59"/>
+      <c r="DH57" s="59"/>
+      <c r="DI57" s="59"/>
+      <c r="DJ57" s="59"/>
+      <c r="DK57" s="59"/>
+      <c r="DL57" s="59"/>
+      <c r="DM57" s="59"/>
+      <c r="DN57" s="59"/>
+      <c r="DO57" s="59"/>
+      <c r="DP57" s="59"/>
+      <c r="DQ57" s="59"/>
+      <c r="DR57" s="59"/>
+      <c r="DS57" s="59"/>
+      <c r="DT57" s="59"/>
+      <c r="DU57" s="59"/>
+      <c r="DV57" s="59"/>
+      <c r="DW57" s="59"/>
+      <c r="DX57" s="59"/>
+      <c r="DY57" s="59"/>
+      <c r="DZ57" s="59"/>
+      <c r="EA57" s="59"/>
+      <c r="EB57" s="59"/>
+      <c r="EC57" s="59"/>
+      <c r="ED57" s="59"/>
+      <c r="EE57" s="59"/>
+      <c r="EF57" s="59"/>
+      <c r="EG57" s="59"/>
+      <c r="EH57" s="59"/>
+      <c r="EI57" s="59"/>
+      <c r="EJ57" s="59"/>
+      <c r="EK57" s="59"/>
+      <c r="EL57" s="59"/>
+      <c r="EM57" s="59"/>
+      <c r="EN57" s="59"/>
+      <c r="EO57" s="59"/>
+      <c r="EP57" s="59"/>
+      <c r="EQ57" s="59"/>
+      <c r="ER57" s="59"/>
+      <c r="ES57" s="59"/>
+      <c r="ET57" s="59"/>
+      <c r="EU57" s="59"/>
+      <c r="EV57" s="59"/>
+      <c r="EW57" s="59"/>
+      <c r="EX57" s="59"/>
+      <c r="EY57" s="59"/>
+      <c r="EZ57" s="59"/>
+      <c r="FA57" s="59"/>
+      <c r="FB57" s="59"/>
+      <c r="FC57" s="59"/>
+      <c r="FD57" s="59"/>
+      <c r="FE57" s="59"/>
+      <c r="FF57" s="59"/>
+      <c r="FG57" s="59"/>
+      <c r="FH57" s="59"/>
+      <c r="FI57" s="59"/>
+      <c r="FJ57" s="59"/>
+      <c r="FK57" s="59"/>
+      <c r="FL57" s="59"/>
+      <c r="FM57" s="59"/>
+      <c r="FN57" s="59"/>
+      <c r="FO57" s="59"/>
+      <c r="FP57" s="59"/>
+      <c r="FQ57" s="59"/>
+      <c r="FR57" s="59"/>
+      <c r="FS57" s="59"/>
+      <c r="FT57" s="59"/>
+      <c r="FU57" s="59"/>
+      <c r="FV57" s="59"/>
+      <c r="FW57" s="59"/>
+      <c r="FX57" s="59"/>
+      <c r="FY57" s="59"/>
+      <c r="FZ57" s="59"/>
+      <c r="GA57" s="59"/>
+      <c r="GB57" s="59"/>
+      <c r="GC57" s="59"/>
+      <c r="GD57" s="59"/>
+      <c r="GE57" s="59"/>
+      <c r="GF57" s="59"/>
+      <c r="GG57" s="59"/>
+      <c r="GH57" s="59"/>
+      <c r="GI57" s="59"/>
+      <c r="GJ57" s="59"/>
+      <c r="GK57" s="59"/>
+      <c r="GL57" s="59"/>
+      <c r="GM57" s="59"/>
+      <c r="GN57" s="59"/>
+      <c r="GO57" s="59"/>
+      <c r="GP57" s="59"/>
+      <c r="GQ57" s="59"/>
+      <c r="GR57" s="59"/>
+      <c r="GS57" s="59"/>
+      <c r="GT57" s="59"/>
+      <c r="GU57" s="59"/>
+      <c r="GV57" s="59"/>
+      <c r="GW57" s="59"/>
+      <c r="GX57" s="59"/>
+      <c r="GY57" s="59"/>
+      <c r="GZ57" s="59"/>
+      <c r="HA57" s="59"/>
+      <c r="HB57" s="59"/>
+      <c r="HC57" s="59"/>
+      <c r="HD57" s="59"/>
+      <c r="HE57" s="59"/>
+      <c r="HF57" s="59"/>
+      <c r="HG57" s="59"/>
+      <c r="HH57" s="59"/>
+      <c r="HI57" s="59"/>
+      <c r="HJ57" s="59"/>
+      <c r="HK57" s="59"/>
+      <c r="HL57" s="59"/>
+      <c r="HM57" s="59"/>
+      <c r="HN57" s="59"/>
+      <c r="HO57" s="59"/>
+      <c r="HP57" s="59"/>
+      <c r="HQ57" s="59"/>
+      <c r="HR57" s="59"/>
+      <c r="HS57" s="59"/>
+      <c r="HT57" s="59"/>
+      <c r="HU57" s="59"/>
+      <c r="HV57" s="59"/>
+      <c r="HW57" s="59"/>
+      <c r="HX57" s="59"/>
+      <c r="HY57" s="59"/>
+      <c r="HZ57" s="59"/>
+      <c r="IA57" s="59"/>
+      <c r="IB57" s="59"/>
+      <c r="IC57" s="59"/>
+      <c r="ID57" s="59"/>
+      <c r="IE57" s="59"/>
+      <c r="IF57" s="59"/>
+      <c r="IG57" s="59"/>
+      <c r="IH57" s="59"/>
+      <c r="II57" s="59"/>
+      <c r="IJ57" s="59"/>
+      <c r="IK57" s="59"/>
+      <c r="IL57" s="59"/>
+      <c r="IM57" s="59"/>
+      <c r="IN57" s="59"/>
+      <c r="IO57" s="59"/>
+      <c r="IP57" s="59"/>
+      <c r="IQ57" s="59"/>
+      <c r="IR57" s="59"/>
+      <c r="IS57" s="59"/>
+      <c r="IT57" s="59"/>
+      <c r="IU57" s="59"/>
+      <c r="IV57" s="59"/>
+      <c r="IW57" s="59"/>
+    </row>
+    <row r="58" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="59"/>
+      <c r="AA58" s="59"/>
+      <c r="AB58" s="59"/>
+      <c r="AC58" s="59"/>
+      <c r="AD58" s="59"/>
+      <c r="AE58" s="59"/>
+      <c r="AF58" s="59"/>
+      <c r="AG58" s="59"/>
+      <c r="AH58" s="59"/>
+      <c r="AI58" s="59"/>
+      <c r="AJ58" s="59"/>
+      <c r="AK58" s="59"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="59"/>
+      <c r="AN58" s="59"/>
+      <c r="AO58" s="59"/>
+      <c r="AP58" s="59"/>
+      <c r="AQ58" s="59"/>
+      <c r="AR58" s="59"/>
+      <c r="AS58" s="59"/>
+      <c r="AT58" s="59"/>
+      <c r="AU58" s="59"/>
+      <c r="AV58" s="59"/>
+      <c r="AW58" s="59"/>
+      <c r="AX58" s="59"/>
+      <c r="AY58" s="59"/>
+      <c r="AZ58" s="59"/>
+      <c r="BA58" s="59"/>
+      <c r="BB58" s="59"/>
+      <c r="BC58" s="59"/>
+      <c r="BD58" s="59"/>
+      <c r="BE58" s="59"/>
+      <c r="BF58" s="59"/>
+      <c r="BG58" s="59"/>
+      <c r="BH58" s="59"/>
+      <c r="BI58" s="59"/>
+      <c r="BJ58" s="59"/>
+      <c r="BK58" s="59"/>
+      <c r="BL58" s="59"/>
+      <c r="BM58" s="59"/>
+      <c r="BN58" s="59"/>
+      <c r="BO58" s="59"/>
+      <c r="BP58" s="59"/>
+      <c r="BQ58" s="59"/>
+      <c r="BR58" s="59"/>
+      <c r="BS58" s="59"/>
+      <c r="BT58" s="59"/>
+      <c r="BU58" s="59"/>
+      <c r="BV58" s="59"/>
+      <c r="BW58" s="59"/>
+      <c r="BX58" s="59"/>
+      <c r="BY58" s="59"/>
+      <c r="BZ58" s="59"/>
+      <c r="CA58" s="59"/>
+      <c r="CB58" s="59"/>
+      <c r="CC58" s="59"/>
+      <c r="CD58" s="59"/>
+      <c r="CE58" s="59"/>
+      <c r="CF58" s="59"/>
+      <c r="CG58" s="59"/>
+      <c r="CH58" s="59"/>
+      <c r="CI58" s="59"/>
+      <c r="CJ58" s="59"/>
+      <c r="CK58" s="59"/>
+      <c r="CL58" s="59"/>
+      <c r="CM58" s="59"/>
+      <c r="CN58" s="59"/>
+      <c r="CO58" s="59"/>
+      <c r="CP58" s="59"/>
+      <c r="CQ58" s="59"/>
+      <c r="CR58" s="59"/>
+      <c r="CS58" s="59"/>
+      <c r="CT58" s="59"/>
+      <c r="CU58" s="59"/>
+      <c r="CV58" s="59"/>
+      <c r="CW58" s="59"/>
+      <c r="CX58" s="59"/>
+      <c r="CY58" s="59"/>
+      <c r="CZ58" s="59"/>
+      <c r="DA58" s="59"/>
+      <c r="DB58" s="59"/>
+      <c r="DC58" s="59"/>
+      <c r="DD58" s="59"/>
+      <c r="DE58" s="59"/>
+      <c r="DF58" s="59"/>
+      <c r="DG58" s="59"/>
+      <c r="DH58" s="59"/>
+      <c r="DI58" s="59"/>
+      <c r="DJ58" s="59"/>
+      <c r="DK58" s="59"/>
+      <c r="DL58" s="59"/>
+      <c r="DM58" s="59"/>
+      <c r="DN58" s="59"/>
+      <c r="DO58" s="59"/>
+      <c r="DP58" s="59"/>
+      <c r="DQ58" s="59"/>
+      <c r="DR58" s="59"/>
+      <c r="DS58" s="59"/>
+      <c r="DT58" s="59"/>
+      <c r="DU58" s="59"/>
+      <c r="DV58" s="59"/>
+      <c r="DW58" s="59"/>
+      <c r="DX58" s="59"/>
+      <c r="DY58" s="59"/>
+      <c r="DZ58" s="59"/>
+      <c r="EA58" s="59"/>
+      <c r="EB58" s="59"/>
+      <c r="EC58" s="59"/>
+      <c r="ED58" s="59"/>
+      <c r="EE58" s="59"/>
+      <c r="EF58" s="59"/>
+      <c r="EG58" s="59"/>
+      <c r="EH58" s="59"/>
+      <c r="EI58" s="59"/>
+      <c r="EJ58" s="59"/>
+      <c r="EK58" s="59"/>
+      <c r="EL58" s="59"/>
+      <c r="EM58" s="59"/>
+      <c r="EN58" s="59"/>
+      <c r="EO58" s="59"/>
+      <c r="EP58" s="59"/>
+      <c r="EQ58" s="59"/>
+      <c r="ER58" s="59"/>
+      <c r="ES58" s="59"/>
+      <c r="ET58" s="59"/>
+      <c r="EU58" s="59"/>
+      <c r="EV58" s="59"/>
+      <c r="EW58" s="59"/>
+      <c r="EX58" s="59"/>
+      <c r="EY58" s="59"/>
+      <c r="EZ58" s="59"/>
+      <c r="FA58" s="59"/>
+      <c r="FB58" s="59"/>
+      <c r="FC58" s="59"/>
+      <c r="FD58" s="59"/>
+      <c r="FE58" s="59"/>
+      <c r="FF58" s="59"/>
+      <c r="FG58" s="59"/>
+      <c r="FH58" s="59"/>
+      <c r="FI58" s="59"/>
+      <c r="FJ58" s="59"/>
+      <c r="FK58" s="59"/>
+      <c r="FL58" s="59"/>
+      <c r="FM58" s="59"/>
+      <c r="FN58" s="59"/>
+      <c r="FO58" s="59"/>
+      <c r="FP58" s="59"/>
+      <c r="FQ58" s="59"/>
+      <c r="FR58" s="59"/>
+      <c r="FS58" s="59"/>
+      <c r="FT58" s="59"/>
+      <c r="FU58" s="59"/>
+      <c r="FV58" s="59"/>
+      <c r="FW58" s="59"/>
+      <c r="FX58" s="59"/>
+      <c r="FY58" s="59"/>
+      <c r="FZ58" s="59"/>
+      <c r="GA58" s="59"/>
+      <c r="GB58" s="59"/>
+      <c r="GC58" s="59"/>
+      <c r="GD58" s="59"/>
+      <c r="GE58" s="59"/>
+      <c r="GF58" s="59"/>
+      <c r="GG58" s="59"/>
+      <c r="GH58" s="59"/>
+      <c r="GI58" s="59"/>
+      <c r="GJ58" s="59"/>
+      <c r="GK58" s="59"/>
+      <c r="GL58" s="59"/>
+      <c r="GM58" s="59"/>
+      <c r="GN58" s="59"/>
+      <c r="GO58" s="59"/>
+      <c r="GP58" s="59"/>
+      <c r="GQ58" s="59"/>
+      <c r="GR58" s="59"/>
+      <c r="GS58" s="59"/>
+      <c r="GT58" s="59"/>
+      <c r="GU58" s="59"/>
+      <c r="GV58" s="59"/>
+      <c r="GW58" s="59"/>
+      <c r="GX58" s="59"/>
+      <c r="GY58" s="59"/>
+      <c r="GZ58" s="59"/>
+      <c r="HA58" s="59"/>
+      <c r="HB58" s="59"/>
+      <c r="HC58" s="59"/>
+      <c r="HD58" s="59"/>
+      <c r="HE58" s="59"/>
+      <c r="HF58" s="59"/>
+      <c r="HG58" s="59"/>
+      <c r="HH58" s="59"/>
+      <c r="HI58" s="59"/>
+      <c r="HJ58" s="59"/>
+      <c r="HK58" s="59"/>
+      <c r="HL58" s="59"/>
+      <c r="HM58" s="59"/>
+      <c r="HN58" s="59"/>
+      <c r="HO58" s="59"/>
+      <c r="HP58" s="59"/>
+      <c r="HQ58" s="59"/>
+      <c r="HR58" s="59"/>
+      <c r="HS58" s="59"/>
+      <c r="HT58" s="59"/>
+      <c r="HU58" s="59"/>
+      <c r="HV58" s="59"/>
+      <c r="HW58" s="59"/>
+      <c r="HX58" s="59"/>
+      <c r="HY58" s="59"/>
+      <c r="HZ58" s="59"/>
+      <c r="IA58" s="59"/>
+      <c r="IB58" s="59"/>
+      <c r="IC58" s="59"/>
+      <c r="ID58" s="59"/>
+      <c r="IE58" s="59"/>
+      <c r="IF58" s="59"/>
+      <c r="IG58" s="59"/>
+      <c r="IH58" s="59"/>
+      <c r="II58" s="59"/>
+      <c r="IJ58" s="59"/>
+      <c r="IK58" s="59"/>
+      <c r="IL58" s="59"/>
+      <c r="IM58" s="59"/>
+      <c r="IN58" s="59"/>
+      <c r="IO58" s="59"/>
+      <c r="IP58" s="59"/>
+      <c r="IQ58" s="59"/>
+      <c r="IR58" s="59"/>
+      <c r="IS58" s="59"/>
+      <c r="IT58" s="59"/>
+      <c r="IU58" s="59"/>
+      <c r="IV58" s="59"/>
+      <c r="IW58" s="59"/>
+    </row>
+    <row r="59" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="59"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="59"/>
+      <c r="AH59" s="59"/>
+      <c r="AI59" s="59"/>
+      <c r="AJ59" s="59"/>
+      <c r="AK59" s="59"/>
+      <c r="AL59" s="59"/>
+      <c r="AM59" s="59"/>
+      <c r="AN59" s="59"/>
+      <c r="AO59" s="59"/>
+      <c r="AP59" s="59"/>
+      <c r="AQ59" s="59"/>
+      <c r="AR59" s="59"/>
+      <c r="AS59" s="59"/>
+      <c r="AT59" s="59"/>
+      <c r="AU59" s="59"/>
+      <c r="AV59" s="59"/>
+      <c r="AW59" s="59"/>
+      <c r="AX59" s="59"/>
+      <c r="AY59" s="59"/>
+      <c r="AZ59" s="59"/>
+      <c r="BA59" s="59"/>
+      <c r="BB59" s="59"/>
+      <c r="BC59" s="59"/>
+      <c r="BD59" s="59"/>
+      <c r="BE59" s="59"/>
+      <c r="BF59" s="59"/>
+      <c r="BG59" s="59"/>
+      <c r="BH59" s="59"/>
+      <c r="BI59" s="59"/>
+      <c r="BJ59" s="59"/>
+      <c r="BK59" s="59"/>
+      <c r="BL59" s="59"/>
+      <c r="BM59" s="59"/>
+      <c r="BN59" s="59"/>
+      <c r="BO59" s="59"/>
+      <c r="BP59" s="59"/>
+      <c r="BQ59" s="59"/>
+      <c r="BR59" s="59"/>
+      <c r="BS59" s="59"/>
+      <c r="BT59" s="59"/>
+      <c r="BU59" s="59"/>
+      <c r="BV59" s="59"/>
+      <c r="BW59" s="59"/>
+      <c r="BX59" s="59"/>
+      <c r="BY59" s="59"/>
+      <c r="BZ59" s="59"/>
+      <c r="CA59" s="59"/>
+      <c r="CB59" s="59"/>
+      <c r="CC59" s="59"/>
+      <c r="CD59" s="59"/>
+      <c r="CE59" s="59"/>
+      <c r="CF59" s="59"/>
+      <c r="CG59" s="59"/>
+      <c r="CH59" s="59"/>
+      <c r="CI59" s="59"/>
+      <c r="CJ59" s="59"/>
+      <c r="CK59" s="59"/>
+      <c r="CL59" s="59"/>
+      <c r="CM59" s="59"/>
+      <c r="CN59" s="59"/>
+      <c r="CO59" s="59"/>
+      <c r="CP59" s="59"/>
+      <c r="CQ59" s="59"/>
+      <c r="CR59" s="59"/>
+      <c r="CS59" s="59"/>
+      <c r="CT59" s="59"/>
+      <c r="CU59" s="59"/>
+      <c r="CV59" s="59"/>
+      <c r="CW59" s="59"/>
+      <c r="CX59" s="59"/>
+      <c r="CY59" s="59"/>
+      <c r="CZ59" s="59"/>
+      <c r="DA59" s="59"/>
+      <c r="DB59" s="59"/>
+      <c r="DC59" s="59"/>
+      <c r="DD59" s="59"/>
+      <c r="DE59" s="59"/>
+      <c r="DF59" s="59"/>
+      <c r="DG59" s="59"/>
+      <c r="DH59" s="59"/>
+      <c r="DI59" s="59"/>
+      <c r="DJ59" s="59"/>
+      <c r="DK59" s="59"/>
+      <c r="DL59" s="59"/>
+      <c r="DM59" s="59"/>
+      <c r="DN59" s="59"/>
+      <c r="DO59" s="59"/>
+      <c r="DP59" s="59"/>
+      <c r="DQ59" s="59"/>
+      <c r="DR59" s="59"/>
+      <c r="DS59" s="59"/>
+      <c r="DT59" s="59"/>
+      <c r="DU59" s="59"/>
+      <c r="DV59" s="59"/>
+      <c r="DW59" s="59"/>
+      <c r="DX59" s="59"/>
+      <c r="DY59" s="59"/>
+      <c r="DZ59" s="59"/>
+      <c r="EA59" s="59"/>
+      <c r="EB59" s="59"/>
+      <c r="EC59" s="59"/>
+      <c r="ED59" s="59"/>
+      <c r="EE59" s="59"/>
+      <c r="EF59" s="59"/>
+      <c r="EG59" s="59"/>
+      <c r="EH59" s="59"/>
+      <c r="EI59" s="59"/>
+      <c r="EJ59" s="59"/>
+      <c r="EK59" s="59"/>
+      <c r="EL59" s="59"/>
+      <c r="EM59" s="59"/>
+      <c r="EN59" s="59"/>
+      <c r="EO59" s="59"/>
+      <c r="EP59" s="59"/>
+      <c r="EQ59" s="59"/>
+      <c r="ER59" s="59"/>
+      <c r="ES59" s="59"/>
+      <c r="ET59" s="59"/>
+      <c r="EU59" s="59"/>
+      <c r="EV59" s="59"/>
+      <c r="EW59" s="59"/>
+      <c r="EX59" s="59"/>
+      <c r="EY59" s="59"/>
+      <c r="EZ59" s="59"/>
+      <c r="FA59" s="59"/>
+      <c r="FB59" s="59"/>
+      <c r="FC59" s="59"/>
+      <c r="FD59" s="59"/>
+      <c r="FE59" s="59"/>
+      <c r="FF59" s="59"/>
+      <c r="FG59" s="59"/>
+      <c r="FH59" s="59"/>
+      <c r="FI59" s="59"/>
+      <c r="FJ59" s="59"/>
+      <c r="FK59" s="59"/>
+      <c r="FL59" s="59"/>
+      <c r="FM59" s="59"/>
+      <c r="FN59" s="59"/>
+      <c r="FO59" s="59"/>
+      <c r="FP59" s="59"/>
+      <c r="FQ59" s="59"/>
+      <c r="FR59" s="59"/>
+      <c r="FS59" s="59"/>
+      <c r="FT59" s="59"/>
+      <c r="FU59" s="59"/>
+      <c r="FV59" s="59"/>
+      <c r="FW59" s="59"/>
+      <c r="FX59" s="59"/>
+      <c r="FY59" s="59"/>
+      <c r="FZ59" s="59"/>
+      <c r="GA59" s="59"/>
+      <c r="GB59" s="59"/>
+      <c r="GC59" s="59"/>
+      <c r="GD59" s="59"/>
+      <c r="GE59" s="59"/>
+      <c r="GF59" s="59"/>
+      <c r="GG59" s="59"/>
+      <c r="GH59" s="59"/>
+      <c r="GI59" s="59"/>
+      <c r="GJ59" s="59"/>
+      <c r="GK59" s="59"/>
+      <c r="GL59" s="59"/>
+      <c r="GM59" s="59"/>
+      <c r="GN59" s="59"/>
+      <c r="GO59" s="59"/>
+      <c r="GP59" s="59"/>
+      <c r="GQ59" s="59"/>
+      <c r="GR59" s="59"/>
+      <c r="GS59" s="59"/>
+      <c r="GT59" s="59"/>
+      <c r="GU59" s="59"/>
+      <c r="GV59" s="59"/>
+      <c r="GW59" s="59"/>
+      <c r="GX59" s="59"/>
+      <c r="GY59" s="59"/>
+      <c r="GZ59" s="59"/>
+      <c r="HA59" s="59"/>
+      <c r="HB59" s="59"/>
+      <c r="HC59" s="59"/>
+      <c r="HD59" s="59"/>
+      <c r="HE59" s="59"/>
+      <c r="HF59" s="59"/>
+      <c r="HG59" s="59"/>
+      <c r="HH59" s="59"/>
+      <c r="HI59" s="59"/>
+      <c r="HJ59" s="59"/>
+      <c r="HK59" s="59"/>
+      <c r="HL59" s="59"/>
+      <c r="HM59" s="59"/>
+      <c r="HN59" s="59"/>
+      <c r="HO59" s="59"/>
+      <c r="HP59" s="59"/>
+      <c r="HQ59" s="59"/>
+      <c r="HR59" s="59"/>
+      <c r="HS59" s="59"/>
+      <c r="HT59" s="59"/>
+      <c r="HU59" s="59"/>
+      <c r="HV59" s="59"/>
+      <c r="HW59" s="59"/>
+      <c r="HX59" s="59"/>
+      <c r="HY59" s="59"/>
+      <c r="HZ59" s="59"/>
+      <c r="IA59" s="59"/>
+      <c r="IB59" s="59"/>
+      <c r="IC59" s="59"/>
+      <c r="ID59" s="59"/>
+      <c r="IE59" s="59"/>
+      <c r="IF59" s="59"/>
+      <c r="IG59" s="59"/>
+      <c r="IH59" s="59"/>
+      <c r="II59" s="59"/>
+      <c r="IJ59" s="59"/>
+      <c r="IK59" s="59"/>
+      <c r="IL59" s="59"/>
+      <c r="IM59" s="59"/>
+      <c r="IN59" s="59"/>
+      <c r="IO59" s="59"/>
+      <c r="IP59" s="59"/>
+      <c r="IQ59" s="59"/>
+      <c r="IR59" s="59"/>
+      <c r="IS59" s="59"/>
+      <c r="IT59" s="59"/>
+      <c r="IU59" s="59"/>
+      <c r="IV59" s="59"/>
+      <c r="IW59" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:L6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:L9"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="F13:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L26"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:D40"/>
+    <mergeCell ref="E33:E40"/>
+    <mergeCell ref="F33:L34"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="F36:L37"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="F41:L41"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:D49"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="F42:L43"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="F45:L46"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B52:L56"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:P46"/>
+  <sheetViews>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.2578125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="60" width="0.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="60" width="7.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="60" width="9.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="60" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="60" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="9" style="60" width="3.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="60" width="11.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="17" style="60" width="7.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+    </row>
+    <row r="2" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+    </row>
+    <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+    </row>
+    <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+    </row>
+    <row r="6" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="64"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+    </row>
+    <row r="8" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="66"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+    </row>
+    <row r="10" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="81"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="82"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="81"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="82"/>
+    </row>
+    <row r="14" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="81"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="82"/>
+    </row>
+    <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="81"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="82"/>
+    </row>
+    <row r="16" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="81"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="82"/>
+    </row>
+    <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="81"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="81"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+    </row>
+    <row r="19" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="81"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+    </row>
+    <row r="20" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+    </row>
+    <row r="21" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+    </row>
+    <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="81"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="82"/>
+    </row>
+    <row r="23" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="81"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="82"/>
+    </row>
+    <row r="24" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="81"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="82"/>
+    </row>
+    <row r="25" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="81"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="82"/>
+    </row>
+    <row r="26" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="81"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="82"/>
+    </row>
+    <row r="27" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="81"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+    </row>
+    <row r="28" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="81"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+    </row>
+    <row r="29" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="81"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+    </row>
+    <row r="30" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="81"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+    </row>
+    <row r="31" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+    </row>
+    <row r="33" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+    </row>
+    <row r="36" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+    </row>
+    <row r="37" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+    </row>
+    <row r="38" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+    </row>
+    <row r="39" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+    </row>
+    <row r="40" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+    </row>
+    <row r="41" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+    </row>
+    <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+    </row>
+    <row r="43" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+    </row>
+    <row r="44" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+    </row>
+    <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+    </row>
+    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="G5:O6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:G19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="I12:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:G30"/>
+    <mergeCell ref="H22:H30"/>
+    <mergeCell ref="I22:O30"/>
+    <mergeCell ref="C31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O39"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="B41:O46"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/doc/詳細設計.xlsx
+++ b/doc/詳細設計.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="機能要件" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Vue" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="コンポーネント図" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="概念図" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="機能一覧" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="完成RESTfullTODOアプリ概念図" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="完成RESTfullTODOアプリ概念図" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="機能要件" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Vue" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="コンポーネント図" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="概念図" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="機能一覧" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="見本" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="エンジニアスキルシート" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="イベント遷移" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="6" name="Excel_BuiltIn_Print_Area" vbProcedure="false">見本!$A$1:$M$57</definedName>
@@ -29,7 +30,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author> </author>
@@ -223,7 +224,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="199">
+  <si>
+    <t xml:space="preserve">ヌルヌルっと動く画面遷移なしで使えるTODOリスト</t>
+  </si>
   <si>
     <t xml:space="preserve">機能</t>
   </si>
@@ -651,9 +655,6 @@
   <si>
     <t xml:space="preserve">管理画面に配置
 .xlsxシートに記載した社員情報に基づいて、社員を一括登録ができる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヌルヌルっと動く画面遷移なしで使えるTODOリスト</t>
   </si>
   <si>
     <t xml:space="preserve">作成日：</t>
@@ -871,6 +872,18 @@
   </si>
   <si>
     <t xml:space="preserve">学習経歴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イベントハンドラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イベント名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機能名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click</t>
   </si>
 </sst>
 </file>
@@ -911,6 +924,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FFC9211E"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -1046,14 +1067,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FFC9211E"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1094,14 +1107,15 @@
       <sz val="24"/>
       <color rgb="FFFFCC00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FFFFCC00"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <b val="true"/>
@@ -1112,7 +1126,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,6 +1167,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFB4C7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1472,8 +1492,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1481,15 +1505,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1513,39 +1537,47 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1553,135 +1585,127 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1697,7 +1721,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1705,116 +1729,104 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="6" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="6" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1901,9 +1913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
+      <xdr:colOff>332280</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>218880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1917,7 +1929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="873720" y="2921040"/>
-          <a:ext cx="793800" cy="2327400"/>
+          <a:ext cx="793440" cy="2327040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1938,9 +1950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>591120</xdr:colOff>
+      <xdr:colOff>590760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205920</xdr:rowOff>
+      <xdr:rowOff>205560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1950,7 +1962,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57240" y="2378160"/>
-          <a:ext cx="2536200" cy="342360"/>
+          <a:ext cx="2535840" cy="342000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2029,9 +2041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2041,7 +2053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4229640" y="1454040"/>
-          <a:ext cx="1041480" cy="5184000"/>
+          <a:ext cx="1041120" cy="5183640"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2134,9 +2146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56520</xdr:colOff>
+      <xdr:colOff>56160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2146,7 +2158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="4025880"/>
-          <a:ext cx="1823400" cy="418320"/>
+          <a:ext cx="1823040" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2189,9 +2201,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>394920</xdr:colOff>
+      <xdr:colOff>394560</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>225000</xdr:rowOff>
+      <xdr:rowOff>224640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2201,7 +2213,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2522880" y="3121200"/>
-          <a:ext cx="1208880" cy="761400"/>
+          <a:ext cx="1208520" cy="761040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2297,9 +2309,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2314,8 +2326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2117520" y="5865120"/>
-          <a:ext cx="1819440" cy="418320"/>
+          <a:off x="2117880" y="5865480"/>
+          <a:ext cx="1819080" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2358,9 +2370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>380880</xdr:colOff>
+      <xdr:colOff>380520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2370,7 +2382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1982520" y="4956120"/>
-          <a:ext cx="2402640" cy="872280"/>
+          <a:ext cx="2402280" cy="871920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2507,9 +2519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>455400</xdr:colOff>
+      <xdr:colOff>455040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2523,7 +2535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7598160" y="2981160"/>
-          <a:ext cx="865800" cy="2321640"/>
+          <a:ext cx="865440" cy="2321280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2544,9 +2556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
+      <xdr:colOff>485280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2556,7 +2568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7292880" y="2314440"/>
-          <a:ext cx="2536200" cy="342360"/>
+          <a:ext cx="2535840" cy="342000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2635,9 +2647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>357120</xdr:colOff>
+      <xdr:colOff>356760</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2647,7 +2659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5821920" y="2333520"/>
-          <a:ext cx="1208880" cy="761400"/>
+          <a:ext cx="1208520" cy="761040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2743,9 +2755,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>93240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2760,8 +2772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5432040" y="3201120"/>
-          <a:ext cx="1822680" cy="418320"/>
+          <a:off x="5432400" y="3201480"/>
+          <a:ext cx="1822320" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2804,9 +2816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>644040</xdr:colOff>
+      <xdr:colOff>643680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2816,7 +2828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5501160" y="4473720"/>
-          <a:ext cx="1816560" cy="418320"/>
+          <a:ext cx="1816200" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2859,9 +2871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>407160</xdr:colOff>
+      <xdr:colOff>406800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2871,7 +2883,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5345640" y="3616200"/>
-          <a:ext cx="2402640" cy="904320"/>
+          <a:ext cx="2402280" cy="903960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2991,9 +3003,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>64440</xdr:colOff>
+      <xdr:colOff>64800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3008,8 +3020,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5403600" y="6093720"/>
-          <a:ext cx="1819440" cy="418320"/>
+          <a:off x="5403960" y="6094080"/>
+          <a:ext cx="1819080" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3052,9 +3064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
+      <xdr:colOff>295920</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>215280</xdr:rowOff>
+      <xdr:rowOff>214920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3064,7 +3076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5453640" y="4800600"/>
-          <a:ext cx="2183760" cy="1358280"/>
+          <a:ext cx="2183400" cy="1357920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3243,9 +3255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600120</xdr:colOff>
+      <xdr:colOff>599760</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>191880</xdr:rowOff>
+      <xdr:rowOff>191520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3255,7 +3267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4226400" y="7356600"/>
-          <a:ext cx="1045440" cy="5179680"/>
+          <a:ext cx="1045080" cy="5179320"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3348,9 +3360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>348480</xdr:colOff>
+      <xdr:colOff>348120</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3364,7 +3376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="838800" y="8435880"/>
-          <a:ext cx="844560" cy="2324880"/>
+          <a:ext cx="844200" cy="2324520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3423,9 +3435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57960</xdr:colOff>
+      <xdr:colOff>57600</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4881240" y="6800760"/>
-          <a:ext cx="1850400" cy="294480"/>
+          <a:ext cx="1850040" cy="294120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3491,9 +3503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>63000</xdr:colOff>
+      <xdr:colOff>62640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3503,7 +3515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285840" y="7229520"/>
-          <a:ext cx="3114000" cy="646920"/>
+          <a:ext cx="3113640" cy="646560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3559,9 +3571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3571,7 +3583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2227680" y="2187720"/>
-          <a:ext cx="1823400" cy="418320"/>
+          <a:ext cx="1823040" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3614,9 +3626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>140760</xdr:colOff>
+      <xdr:colOff>140400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3626,7 +3638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2345400" y="1596960"/>
-          <a:ext cx="1799640" cy="761400"/>
+          <a:ext cx="1799280" cy="761040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3676,9 +3688,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3693,8 +3705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5444640" y="1950120"/>
-          <a:ext cx="1829160" cy="418320"/>
+          <a:off x="5445000" y="1950480"/>
+          <a:ext cx="1828800" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3737,9 +3749,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
+      <xdr:colOff>165600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3749,7 +3761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5707440" y="1371600"/>
-          <a:ext cx="1799640" cy="761400"/>
+          <a:ext cx="1799280" cy="761040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3805,9 +3817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56520</xdr:colOff>
+      <xdr:colOff>56160</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3817,7 +3829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="8112240"/>
-          <a:ext cx="1823400" cy="418320"/>
+          <a:ext cx="1823040" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3860,9 +3872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
+      <xdr:colOff>32400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3872,7 +3884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="7540560"/>
-          <a:ext cx="1799640" cy="761400"/>
+          <a:ext cx="1799280" cy="761040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3928,9 +3940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>646920</xdr:colOff>
+      <xdr:colOff>646560</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3940,7 +3952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2173680" y="11969640"/>
-          <a:ext cx="1810080" cy="418320"/>
+          <a:ext cx="1809720" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3983,9 +3995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
+      <xdr:colOff>332280</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>212040</xdr:rowOff>
+      <xdr:rowOff>211680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3995,7 +4007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2068920" y="9156600"/>
-          <a:ext cx="3602880" cy="1342440"/>
+          <a:ext cx="3602520" cy="1342080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4153,9 +4165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
+      <xdr:colOff>14760</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4165,7 +4177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2189520" y="8766000"/>
-          <a:ext cx="1829880" cy="418320"/>
+          <a:ext cx="1829520" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4208,9 +4220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4220,7 +4232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2367360" y="8483760"/>
-          <a:ext cx="1799640" cy="484920"/>
+          <a:ext cx="1799280" cy="484560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4276,9 +4288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>126360</xdr:colOff>
+      <xdr:colOff>126000</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4288,7 +4300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="797760" y="10753560"/>
-          <a:ext cx="3332880" cy="1272600"/>
+          <a:ext cx="3332520" cy="1272240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4444,9 +4456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>666720</xdr:colOff>
+      <xdr:colOff>666360</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4456,7 +4468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2176920" y="10449000"/>
-          <a:ext cx="1826640" cy="418320"/>
+          <a:ext cx="1826280" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4504,9 +4516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>535320</xdr:colOff>
+      <xdr:colOff>534960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4516,7 +4528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="186120" y="937440"/>
-          <a:ext cx="961920" cy="510480"/>
+          <a:ext cx="960840" cy="510120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4537,6 +4549,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -4553,6 +4570,7 @@
                 <a:srgbClr val="ffcc00"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
@@ -4583,9 +4601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
+      <xdr:colOff>542880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4595,7 +4613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="1524240"/>
-          <a:ext cx="961920" cy="510480"/>
+          <a:ext cx="960840" cy="510120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4616,6 +4634,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -4632,6 +4655,7 @@
                 <a:srgbClr val="ffcc00"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
@@ -4662,9 +4686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>209520</xdr:colOff>
+      <xdr:colOff>209160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>228240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4673,8 +4697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5065200" y="426240"/>
-          <a:ext cx="969840" cy="511200"/>
+          <a:off x="5063400" y="426240"/>
+          <a:ext cx="969480" cy="510840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4695,6 +4719,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -4711,6 +4740,7 @@
                 <a:srgbClr val="ffcc00"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
@@ -4741,9 +4771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
+      <xdr:colOff>542880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>213120</xdr:rowOff>
+      <xdr:rowOff>212760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4753,7 +4783,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="2301120"/>
-          <a:ext cx="961920" cy="510480"/>
+          <a:ext cx="960840" cy="510120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4774,6 +4804,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -4790,6 +4825,7 @@
                 <a:srgbClr val="ffcc00"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
@@ -4820,9 +4856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
+      <xdr:colOff>542880</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4832,7 +4868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="12009240"/>
-          <a:ext cx="961920" cy="510120"/>
+          <a:ext cx="960840" cy="509760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4853,6 +4889,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="2400" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -4869,6 +4910,7 @@
                 <a:srgbClr val="ffcc00"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
             <a:t>5</a:t>
           </a:r>
@@ -4898,340 +4940,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.08"/>
-  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5249,9 +4969,360 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="35.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="61.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="39.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="24.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
@@ -5259,399 +5330,399 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="35.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="2" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="F15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="G16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="D17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5681,415 +5752,415 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="36.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="F2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
-      <c r="B3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="F4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="F5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="F6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="A13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="B17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="n">
-        <v>8</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="44" t="n">
-        <v>9</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48" t="n">
+      <c r="A28" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="51"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="33"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6123,47 +6194,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>78</v>
+      <c r="A1" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>79</v>
+      <c r="A2" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>80</v>
+      <c r="A4" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+      <c r="A5" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L54" s="1" t="s">
-        <v>82</v>
+      <c r="L54" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L55" s="1" t="s">
-        <v>83</v>
+      <c r="L55" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6178,269 +6249,240 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="87.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="87.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>85</v>
       </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="s">
-        <v>86</v>
+      <c r="A2" s="57" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="C3" s="58" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="C4" s="58" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="C5" s="58" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="C6" s="58" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="C7" s="58" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="57" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="C25" s="58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>126</v>
+      <c r="C26" s="58" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="57" t="s">
+      <c r="B27" s="58" t="s">
         <v>128</v>
       </c>
+      <c r="C27" s="58" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="C28" s="58" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="57" t="s">
+      <c r="B29" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
+      <c r="C29" s="58" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6462,7 +6504,7 @@
   </sheetPr>
   <dimension ref="B1:IW59"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7424,7 +7466,6 @@
       <c r="J13" s="68"/>
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
-      <c r="M13" s="73"/>
     </row>
     <row r="14" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="72"/>
@@ -7438,7 +7479,6 @@
       <c r="J14" s="68"/>
       <c r="K14" s="68"/>
       <c r="L14" s="68"/>
-      <c r="M14" s="73"/>
     </row>
     <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="72"/>
@@ -7454,7 +7494,6 @@
       <c r="J15" s="64"/>
       <c r="K15" s="64"/>
       <c r="L15" s="64"/>
-      <c r="M15" s="73"/>
     </row>
     <row r="16" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="72"/>
@@ -7470,7 +7509,6 @@
       <c r="J16" s="65"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
-      <c r="M16" s="73"/>
     </row>
     <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="72"/>
@@ -7484,7 +7522,6 @@
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
       <c r="L17" s="65"/>
-      <c r="M17" s="73"/>
     </row>
     <row r="18" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="72"/>
@@ -7506,25 +7543,25 @@
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="L19" s="74" t="s">
+      <c r="L19" s="73" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7533,19 +7570,19 @@
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75" t="s">
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="64" t="s">
@@ -7588,7 +7625,6 @@
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
       <c r="L22" s="68"/>
-      <c r="M22" s="73"/>
     </row>
     <row r="23" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="72"/>
@@ -7602,7 +7638,6 @@
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
       <c r="L23" s="68"/>
-      <c r="M23" s="73"/>
     </row>
     <row r="24" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="72"/>
@@ -7618,7 +7653,6 @@
       <c r="J24" s="64"/>
       <c r="K24" s="64"/>
       <c r="L24" s="64"/>
-      <c r="M24" s="73"/>
     </row>
     <row r="25" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="72"/>
@@ -7634,7 +7668,6 @@
       <c r="J25" s="65"/>
       <c r="K25" s="65"/>
       <c r="L25" s="65"/>
-      <c r="M25" s="73"/>
     </row>
     <row r="26" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="72"/>
@@ -7648,7 +7681,6 @@
       <c r="J26" s="65"/>
       <c r="K26" s="65"/>
       <c r="L26" s="65"/>
-      <c r="M26" s="73"/>
     </row>
     <row r="27" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="72"/>
@@ -7670,50 +7702,50 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
-      <c r="F28" s="74" t="s">
+      <c r="F28" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="74" t="s">
+      <c r="G28" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="74" t="s">
+      <c r="J28" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="K28" s="74" t="s">
+      <c r="K28" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="L28" s="74" t="s">
+      <c r="L28" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="O28" s="76"/>
+      <c r="O28" s="75"/>
     </row>
     <row r="29" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
       <c r="E29" s="72"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75" t="s">
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="K29" s="75" t="s">
+      <c r="K29" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="75"/>
-      <c r="O29" s="76"/>
+      <c r="L29" s="74"/>
+      <c r="O29" s="75"/>
     </row>
     <row r="30" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="59"/>
@@ -7727,7 +7759,7 @@
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
-      <c r="O30" s="77"/>
+      <c r="O30" s="76"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
       <c r="R30" s="59"/>
@@ -7987,7 +8019,7 @@
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
       <c r="L31" s="65"/>
-      <c r="O31" s="76"/>
+      <c r="O31" s="75"/>
     </row>
     <row r="32" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="64" t="s">
@@ -8009,7 +8041,7 @@
       <c r="J32" s="66"/>
       <c r="K32" s="66"/>
       <c r="L32" s="66"/>
-      <c r="O32" s="76"/>
+      <c r="O32" s="75"/>
     </row>
     <row r="33" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="72" t="s">
@@ -8031,8 +8063,7 @@
       <c r="J33" s="68"/>
       <c r="K33" s="68"/>
       <c r="L33" s="68"/>
-      <c r="M33" s="73"/>
-      <c r="O33" s="76"/>
+      <c r="O33" s="75"/>
     </row>
     <row r="34" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="72"/>
@@ -8046,8 +8077,7 @@
       <c r="J34" s="68"/>
       <c r="K34" s="68"/>
       <c r="L34" s="68"/>
-      <c r="M34" s="73"/>
-      <c r="O34" s="76"/>
+      <c r="O34" s="75"/>
     </row>
     <row r="35" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="72"/>
@@ -8063,8 +8093,7 @@
       <c r="J35" s="64"/>
       <c r="K35" s="64"/>
       <c r="L35" s="64"/>
-      <c r="M35" s="73"/>
-      <c r="O35" s="76"/>
+      <c r="O35" s="75"/>
     </row>
     <row r="36" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="72"/>
@@ -8080,8 +8109,7 @@
       <c r="J36" s="65"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
-      <c r="M36" s="73"/>
-      <c r="O36" s="76"/>
+      <c r="O36" s="75"/>
     </row>
     <row r="37" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="72"/>
@@ -8095,8 +8123,7 @@
       <c r="J37" s="65"/>
       <c r="K37" s="65"/>
       <c r="L37" s="65"/>
-      <c r="M37" s="73"/>
-      <c r="O37" s="76"/>
+      <c r="O37" s="75"/>
     </row>
     <row r="38" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="72"/>
@@ -8118,25 +8145,25 @@
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
       <c r="E39" s="72"/>
-      <c r="F39" s="74" t="s">
+      <c r="F39" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="G39" s="74" t="s">
+      <c r="G39" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="H39" s="74" t="s">
+      <c r="H39" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="I39" s="74" t="s">
+      <c r="I39" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="74" t="s">
+      <c r="J39" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="K39" s="74" t="s">
+      <c r="K39" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="L39" s="74" t="s">
+      <c r="L39" s="73" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8145,25 +8172,25 @@
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
       <c r="E40" s="72"/>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="H40" s="75" t="s">
+      <c r="H40" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="I40" s="75" t="s">
+      <c r="I40" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="J40" s="75" t="s">
+      <c r="J40" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="K40" s="75" t="s">
+      <c r="K40" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="L40" s="75" t="s">
+      <c r="L40" s="74" t="s">
         <v>168</v>
       </c>
     </row>
@@ -8208,7 +8235,6 @@
       <c r="J42" s="65"/>
       <c r="K42" s="65"/>
       <c r="L42" s="65"/>
-      <c r="M42" s="73"/>
     </row>
     <row r="43" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="72"/>
@@ -8222,7 +8248,6 @@
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
-      <c r="M43" s="73"/>
     </row>
     <row r="44" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="72"/>
@@ -8238,7 +8263,6 @@
       <c r="J44" s="64"/>
       <c r="K44" s="64"/>
       <c r="L44" s="64"/>
-      <c r="M44" s="73"/>
     </row>
     <row r="45" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="72"/>
@@ -8254,7 +8278,6 @@
       <c r="J45" s="65"/>
       <c r="K45" s="65"/>
       <c r="L45" s="65"/>
-      <c r="M45" s="73"/>
     </row>
     <row r="46" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="72"/>
@@ -8268,7 +8291,6 @@
       <c r="J46" s="65"/>
       <c r="K46" s="65"/>
       <c r="L46" s="65"/>
-      <c r="M46" s="73"/>
     </row>
     <row r="47" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="72"/>
@@ -8290,25 +8312,25 @@
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
       <c r="E48" s="72"/>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="G48" s="74" t="s">
+      <c r="G48" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="74" t="s">
+      <c r="H48" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="I48" s="74" t="s">
+      <c r="I48" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="J48" s="74" t="s">
+      <c r="J48" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="K48" s="74" t="s">
+      <c r="K48" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="L48" s="74" t="s">
+      <c r="L48" s="73" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8317,21 +8339,21 @@
       <c r="C49" s="72"/>
       <c r="D49" s="72"/>
       <c r="E49" s="72"/>
-      <c r="F49" s="75" t="s">
+      <c r="F49" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="G49" s="75" t="s">
+      <c r="G49" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="75" t="s">
+      <c r="H49" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="I49" s="75" t="s">
+      <c r="I49" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
     </row>
     <row r="50" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="59"/>
@@ -8364,75 +8386,75 @@
       <c r="N51" s="60"/>
     </row>
     <row r="52" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
       <c r="N52" s="60"/>
     </row>
     <row r="53" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
       <c r="N53" s="60"/>
     </row>
     <row r="54" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
       <c r="N54" s="60"/>
     </row>
     <row r="55" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
       <c r="N55" s="60"/>
     </row>
     <row r="56" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
       <c r="N56" s="60"/>
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9271,9 +9293,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:P46"/>
+  <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9309,58 +9331,58 @@
       <c r="O1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="64" t="s">
@@ -9370,15 +9392,15 @@
       <c r="D5" s="67"/>
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="64"/>
@@ -9386,15 +9408,15 @@
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
     </row>
     <row r="7" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="66" t="s">
@@ -9471,10 +9493,10 @@
       <c r="C11" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="64" t="s">
         <v>152</v>
       </c>
@@ -9489,7 +9511,7 @@
       <c r="O11" s="66"/>
     </row>
     <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="81"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
       <c r="E12" s="72"/>
@@ -9503,10 +9525,9 @@
       <c r="M12" s="72"/>
       <c r="N12" s="72"/>
       <c r="O12" s="72"/>
-      <c r="P12" s="82"/>
     </row>
     <row r="13" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="81"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="72"/>
@@ -9520,10 +9541,9 @@
       <c r="M13" s="72"/>
       <c r="N13" s="72"/>
       <c r="O13" s="72"/>
-      <c r="P13" s="82"/>
     </row>
     <row r="14" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="81"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
       <c r="E14" s="72"/>
@@ -9537,10 +9557,9 @@
       <c r="M14" s="72"/>
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
-      <c r="P14" s="82"/>
     </row>
     <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="81"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
       <c r="E15" s="72"/>
@@ -9554,10 +9573,9 @@
       <c r="M15" s="72"/>
       <c r="N15" s="72"/>
       <c r="O15" s="72"/>
-      <c r="P15" s="82"/>
     </row>
     <row r="16" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="81"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
@@ -9571,10 +9589,9 @@
       <c r="M16" s="72"/>
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
-      <c r="P16" s="82"/>
     </row>
     <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="81"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="72"/>
@@ -9590,7 +9607,7 @@
       <c r="O17" s="72"/>
     </row>
     <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="81"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
@@ -9606,7 +9623,7 @@
       <c r="O18" s="72"/>
     </row>
     <row r="19" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="81"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
@@ -9625,19 +9642,19 @@
       <c r="B20" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
     </row>
     <row r="21" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="64" t="s">
@@ -9646,10 +9663,10 @@
       <c r="C21" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="64" t="s">
         <v>152</v>
       </c>
@@ -9664,7 +9681,7 @@
       <c r="O21" s="66"/>
     </row>
     <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="81"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
@@ -9678,10 +9695,9 @@
       <c r="M22" s="68"/>
       <c r="N22" s="68"/>
       <c r="O22" s="68"/>
-      <c r="P22" s="82"/>
     </row>
     <row r="23" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="81"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
       <c r="E23" s="72"/>
@@ -9695,10 +9711,9 @@
       <c r="M23" s="68"/>
       <c r="N23" s="68"/>
       <c r="O23" s="68"/>
-      <c r="P23" s="82"/>
     </row>
     <row r="24" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="81"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
@@ -9712,10 +9727,9 @@
       <c r="M24" s="68"/>
       <c r="N24" s="68"/>
       <c r="O24" s="68"/>
-      <c r="P24" s="82"/>
     </row>
     <row r="25" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="81"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
@@ -9729,10 +9743,9 @@
       <c r="M25" s="68"/>
       <c r="N25" s="68"/>
       <c r="O25" s="68"/>
-      <c r="P25" s="82"/>
     </row>
     <row r="26" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="81"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
@@ -9746,10 +9759,9 @@
       <c r="M26" s="68"/>
       <c r="N26" s="68"/>
       <c r="O26" s="68"/>
-      <c r="P26" s="82"/>
     </row>
     <row r="27" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="81"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
@@ -9765,7 +9777,7 @@
       <c r="O27" s="68"/>
     </row>
     <row r="28" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="81"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
@@ -9781,7 +9793,7 @@
       <c r="O28" s="68"/>
     </row>
     <row r="29" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="81"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
       <c r="E29" s="72"/>
@@ -9797,7 +9809,7 @@
       <c r="O29" s="68"/>
     </row>
     <row r="30" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="81"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
@@ -9816,19 +9828,19 @@
       <c r="B31" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
     </row>
     <row r="32" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="64" t="s">
@@ -9849,116 +9861,116 @@
       <c r="O32" s="64"/>
     </row>
     <row r="33" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
     </row>
     <row r="34" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
     </row>
     <row r="35" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
     </row>
     <row r="36" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
     </row>
     <row r="37" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
     </row>
     <row r="38" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
     </row>
     <row r="39" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
     </row>
     <row r="40" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="64" t="s">
@@ -9979,100 +9991,100 @@
       <c r="O40" s="64"/>
     </row>
     <row r="41" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
     </row>
     <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
     </row>
     <row r="43" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
     </row>
     <row r="44" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
     </row>
     <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
     </row>
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -10114,4 +10126,279 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/doc/詳細設計.xlsx
+++ b/doc/詳細設計.xlsx
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
   <si>
     <t xml:space="preserve">ヌルヌルっと動く画面遷移なしで使えるTODOリスト</t>
   </si>
@@ -874,16 +874,37 @@
     <t xml:space="preserve">学習経歴</t>
   </si>
   <si>
-    <t xml:space="preserve">イベントハンドラー</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベント名</t>
   </si>
   <si>
-    <t xml:space="preserve">機能名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click</t>
+    <t xml:space="preserve">メソッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">childEnO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@click="childEnO" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">モーダル開く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navi.vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@click="emit('entry', formData)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@entry="(formData: any) =&gt; todoService.postEntry(formData)"</t>
   </si>
 </sst>
 </file>
@@ -1821,12 +1842,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1913,9 +1934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>332280</xdr:colOff>
+      <xdr:colOff>331920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>218520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1929,7 +1950,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="873720" y="2921040"/>
-          <a:ext cx="793440" cy="2327040"/>
+          <a:ext cx="793080" cy="2326680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1950,9 +1971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590760</xdr:colOff>
+      <xdr:colOff>590400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205560</xdr:rowOff>
+      <xdr:rowOff>205200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1962,7 +1983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57240" y="2378160"/>
-          <a:ext cx="2535840" cy="342000"/>
+          <a:ext cx="2535480" cy="341640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2041,9 +2062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>599040</xdr:colOff>
+      <xdr:colOff>598680</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2053,7 +2074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4229640" y="1454040"/>
-          <a:ext cx="1041120" cy="5183640"/>
+          <a:ext cx="1040760" cy="5183280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2146,9 +2167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
+      <xdr:colOff>55800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2158,7 +2179,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="4025880"/>
-          <a:ext cx="1823040" cy="417960"/>
+          <a:ext cx="1822680" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2201,9 +2222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>394560</xdr:colOff>
+      <xdr:colOff>394200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>224640</xdr:rowOff>
+      <xdr:rowOff>224280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2213,7 +2234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2522880" y="3121200"/>
-          <a:ext cx="1208520" cy="761040"/>
+          <a:ext cx="1208160" cy="760680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2309,9 +2330,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
+      <xdr:colOff>115920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2326,8 +2347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2117880" y="5865480"/>
-          <a:ext cx="1819080" cy="417960"/>
+          <a:off x="2118240" y="5865840"/>
+          <a:ext cx="1818720" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2370,9 +2391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>380520</xdr:colOff>
+      <xdr:colOff>380160</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2382,7 +2403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1982520" y="4956120"/>
-          <a:ext cx="2402280" cy="871920"/>
+          <a:ext cx="2401920" cy="871560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,9 +2540,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>455040</xdr:colOff>
+      <xdr:colOff>454680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2535,7 +2556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7598160" y="2981160"/>
-          <a:ext cx="865440" cy="2321280"/>
+          <a:ext cx="865080" cy="2320920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2556,9 +2577,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>485280</xdr:colOff>
+      <xdr:colOff>484920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2568,7 +2589,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7292880" y="2314440"/>
-          <a:ext cx="2535840" cy="342000"/>
+          <a:ext cx="2535480" cy="341640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2647,9 +2668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>356760</xdr:colOff>
+      <xdr:colOff>356400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2659,7 +2680,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5821920" y="2333520"/>
-          <a:ext cx="1208520" cy="761040"/>
+          <a:ext cx="1208160" cy="760680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2755,9 +2776,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2772,8 +2793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5432400" y="3201480"/>
-          <a:ext cx="1822320" cy="417960"/>
+          <a:off x="5432760" y="3201840"/>
+          <a:ext cx="1821960" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2816,9 +2837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>643680</xdr:colOff>
+      <xdr:colOff>643320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2828,7 +2849,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5501160" y="4473720"/>
-          <a:ext cx="1816200" cy="417960"/>
+          <a:ext cx="1815840" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2871,9 +2892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>406800</xdr:colOff>
+      <xdr:colOff>406440</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2883,7 +2904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5345640" y="3616200"/>
-          <a:ext cx="2402280" cy="903960"/>
+          <a:ext cx="2401920" cy="903600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3003,9 +3024,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3020,8 +3041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5403960" y="6094080"/>
-          <a:ext cx="1819080" cy="417960"/>
+          <a:off x="5404320" y="6094440"/>
+          <a:ext cx="1818720" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3064,9 +3085,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>295920</xdr:colOff>
+      <xdr:colOff>295560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>214920</xdr:rowOff>
+      <xdr:rowOff>214560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3076,7 +3097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5453640" y="4800600"/>
-          <a:ext cx="2183400" cy="1357920"/>
+          <a:ext cx="2183040" cy="1357560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3255,9 +3276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
+      <xdr:colOff>599400</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>191520</xdr:rowOff>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3267,7 +3288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4226400" y="7356600"/>
-          <a:ext cx="1045080" cy="5179320"/>
+          <a:ext cx="1044720" cy="5178960"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3360,9 +3381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>348120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3376,7 +3397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="838800" y="8435880"/>
-          <a:ext cx="844200" cy="2324520"/>
+          <a:ext cx="843840" cy="2324160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3435,9 +3456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>57240</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3447,7 +3468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4881240" y="6800760"/>
-          <a:ext cx="1850040" cy="294120"/>
+          <a:ext cx="1849680" cy="293760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3503,9 +3524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
+      <xdr:colOff>62280</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3515,7 +3536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285840" y="7229520"/>
-          <a:ext cx="3113640" cy="646560"/>
+          <a:ext cx="3113280" cy="646200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3571,9 +3592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>46440</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3583,7 +3604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2227680" y="2187720"/>
-          <a:ext cx="1823040" cy="417960"/>
+          <a:ext cx="1822680" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3626,9 +3647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>140400</xdr:colOff>
+      <xdr:colOff>140040</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3638,7 +3659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2345400" y="1596960"/>
-          <a:ext cx="1799280" cy="761040"/>
+          <a:ext cx="1798920" cy="760680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3688,9 +3709,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3705,8 +3726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5445000" y="1950480"/>
-          <a:ext cx="1828800" cy="417960"/>
+          <a:off x="5445360" y="1950840"/>
+          <a:ext cx="1828440" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3749,9 +3770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3761,7 +3782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5707440" y="1371600"/>
-          <a:ext cx="1799280" cy="761040"/>
+          <a:ext cx="1798920" cy="760680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3817,9 +3838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
+      <xdr:colOff>55800</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3829,7 +3850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="8112240"/>
-          <a:ext cx="1823040" cy="417960"/>
+          <a:ext cx="1822680" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3872,9 +3893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>32400</xdr:colOff>
+      <xdr:colOff>32040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3884,7 +3905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="7540560"/>
-          <a:ext cx="1799280" cy="761040"/>
+          <a:ext cx="1798920" cy="760680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3940,9 +3961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>646560</xdr:colOff>
+      <xdr:colOff>646200</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3952,7 +3973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2173680" y="11969640"/>
-          <a:ext cx="1809720" cy="417960"/>
+          <a:ext cx="1809360" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3995,9 +4016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>332280</xdr:colOff>
+      <xdr:colOff>331920</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>211680</xdr:rowOff>
+      <xdr:rowOff>211320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4007,7 +4028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2068920" y="9156600"/>
-          <a:ext cx="3602520" cy="1342080"/>
+          <a:ext cx="3602160" cy="1341720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4165,9 +4186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4177,7 +4198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2189520" y="8766000"/>
-          <a:ext cx="1829520" cy="417960"/>
+          <a:ext cx="1829160" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4220,9 +4241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4232,7 +4253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2367360" y="8483760"/>
-          <a:ext cx="1799280" cy="484560"/>
+          <a:ext cx="1798920" cy="484200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4288,9 +4309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>126000</xdr:colOff>
+      <xdr:colOff>125640</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4300,7 +4321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="797760" y="10753560"/>
-          <a:ext cx="3332520" cy="1272240"/>
+          <a:ext cx="3332160" cy="1271880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4456,9 +4477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:colOff>666000</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4468,7 +4489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2176920" y="10449000"/>
-          <a:ext cx="1826280" cy="417960"/>
+          <a:ext cx="1825920" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4516,9 +4537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:colOff>534600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4528,7 +4549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="186120" y="937440"/>
-          <a:ext cx="960840" cy="510120"/>
+          <a:ext cx="960480" cy="509760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4601,9 +4622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4613,7 +4634,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="1524240"/>
-          <a:ext cx="960840" cy="510120"/>
+          <a:ext cx="960480" cy="509760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4686,9 +4707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>228240</xdr:rowOff>
+      <xdr:rowOff>227880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4698,7 +4719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5063400" y="426240"/>
-          <a:ext cx="969480" cy="510840"/>
+          <a:ext cx="969120" cy="510480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4771,9 +4792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>212760</xdr:rowOff>
+      <xdr:rowOff>212400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4783,7 +4804,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="2301120"/>
-          <a:ext cx="960840" cy="510120"/>
+          <a:ext cx="960480" cy="509760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4856,9 +4877,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4868,7 +4889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="12009240"/>
-          <a:ext cx="960840" cy="509760"/>
+          <a:ext cx="960480" cy="509400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10136,16 +10157,17 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="57.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="23.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10156,241 +10178,261 @@
         <v>196</v>
       </c>
       <c r="C1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="E1" s="82" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" s="82"/>
       <c r="G1" s="82"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83"/>
+      <c r="A2" s="83" t="s">
+        <v>198</v>
+      </c>
       <c r="B2" s="83" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
+      <c r="D3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/詳細設計.xlsx
+++ b/doc/詳細設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="完成RESTfullTODOアプリ概念図" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,9 @@
     <sheet name="見本" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="エンジニアスキルシート" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="イベント遷移" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="条件DB" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="6" name="Excel_BuiltIn_Print_Area" vbProcedure="false">見本!$A$1:$M$57</definedName>
@@ -224,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="228">
   <si>
     <t xml:space="preserve">ヌルヌルっと動く画面遷移なしで使えるTODOリスト</t>
   </si>
@@ -905,6 +908,105 @@
   </si>
   <si>
     <t xml:space="preserve">@entry="(formData: any) =&gt; todoService.postEntry(formData)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スマート農業体験アプリ（仮）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※OpenAI使うかわからない</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">クラウド上で農業を管理・育成を体験できます。
+実際に</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="14"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">農林水産省に申請から補助金取得までのプロセスを体験</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">できます</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ターゲット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・農業に興味があるが都会だと億劫だし面倒だと言い張るような働く意欲のない若者（３５歳まで）
+・公共事業の落札などの経験のない氷河期世代</t>
+  </si>
+  <si>
+    <t xml:space="preserve">失敗・・・残念でした。ハローワークのホームページにリダイレクト強制移動</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功！！！所持金増加！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作成書類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イベント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交付の対象及び補助率 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">事業実施計画の作成 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">事業遂行状況報告書 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">補助対象経費 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">概算払請求書 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">実績報告書 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">補助事業者の区分 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">交付申請書 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">交付決定者 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">申請手続 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">審査</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交付決定の通知 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">補助金の額の確定等 </t>
   </si>
 </sst>
 </file>
@@ -915,7 +1017,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1146,6 +1248,80 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="メイリオ"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="14"/>
+      <color rgb="FFC9211E"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF83CAFF"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1197,7 +1373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="42">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1484,6 +1660,34 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1513,7 +1717,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="104">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1846,8 +2050,88 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1934,9 +2218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>331920</xdr:colOff>
+      <xdr:colOff>330840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>218520</xdr:rowOff>
+      <xdr:rowOff>217440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1950,7 +2234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="873720" y="2921040"/>
-          <a:ext cx="793080" cy="2326680"/>
+          <a:ext cx="792000" cy="2325600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1971,9 +2255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590400</xdr:colOff>
+      <xdr:colOff>589320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205200</xdr:rowOff>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1983,7 +2267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57240" y="2378160"/>
-          <a:ext cx="2535480" cy="341640"/>
+          <a:ext cx="2534400" cy="340560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2062,9 +2346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>598680</xdr:colOff>
+      <xdr:colOff>597600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2074,7 +2358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4229640" y="1454040"/>
-          <a:ext cx="1040760" cy="5183280"/>
+          <a:ext cx="1039680" cy="5182200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2167,9 +2451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
+      <xdr:colOff>54720</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2179,7 +2463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="4025880"/>
-          <a:ext cx="1822680" cy="417600"/>
+          <a:ext cx="1821600" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2222,9 +2506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>394200</xdr:colOff>
+      <xdr:colOff>393120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>224280</xdr:rowOff>
+      <xdr:rowOff>223200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2234,7 +2518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2522880" y="3121200"/>
-          <a:ext cx="1208160" cy="760680"/>
+          <a:ext cx="1207080" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2330,9 +2614,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>117000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2347,8 +2631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2118240" y="5865840"/>
-          <a:ext cx="1818720" cy="417600"/>
+          <a:off x="2119320" y="5866920"/>
+          <a:ext cx="1817640" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2391,9 +2675,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>380160</xdr:colOff>
+      <xdr:colOff>379080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2403,7 +2687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1982520" y="4956120"/>
-          <a:ext cx="2401920" cy="871560"/>
+          <a:ext cx="2400840" cy="870480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2540,9 +2824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>454680</xdr:colOff>
+      <xdr:colOff>453600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2556,7 +2840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7598160" y="2981160"/>
-          <a:ext cx="865080" cy="2320920"/>
+          <a:ext cx="864000" cy="2319840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2577,9 +2861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>484920</xdr:colOff>
+      <xdr:colOff>483840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2589,7 +2873,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7292880" y="2314440"/>
-          <a:ext cx="2535480" cy="341640"/>
+          <a:ext cx="2534400" cy="340560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2668,9 +2952,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>356400</xdr:colOff>
+      <xdr:colOff>355320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2680,7 +2964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5821920" y="2333520"/>
-          <a:ext cx="1208160" cy="760680"/>
+          <a:ext cx="1207080" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2776,9 +3060,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2793,8 +3077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5432760" y="3201840"/>
-          <a:ext cx="1821960" cy="417600"/>
+          <a:off x="5433840" y="3202920"/>
+          <a:ext cx="1820880" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2837,9 +3121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>643320</xdr:colOff>
+      <xdr:colOff>642240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2849,7 +3133,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5501160" y="4473720"/>
-          <a:ext cx="1815840" cy="417600"/>
+          <a:ext cx="1814760" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2892,9 +3176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>405360</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2904,7 +3188,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5345640" y="3616200"/>
-          <a:ext cx="2401920" cy="903600"/>
+          <a:ext cx="2400840" cy="902520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3024,9 +3308,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3041,8 +3325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5404320" y="6094440"/>
-          <a:ext cx="1818720" cy="417600"/>
+          <a:off x="5405400" y="6095520"/>
+          <a:ext cx="1817640" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3085,9 +3369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>295560</xdr:colOff>
+      <xdr:colOff>294480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>214560</xdr:rowOff>
+      <xdr:rowOff>213480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3097,7 +3381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5453640" y="4800600"/>
-          <a:ext cx="2183040" cy="1357560"/>
+          <a:ext cx="2181960" cy="1356480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3276,9 +3560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>598320</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3288,7 +3572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4226400" y="7356600"/>
-          <a:ext cx="1044720" cy="5178960"/>
+          <a:ext cx="1043640" cy="5177880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3381,9 +3665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>346680</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3397,7 +3681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="838800" y="8435880"/>
-          <a:ext cx="843840" cy="2324160"/>
+          <a:ext cx="842760" cy="2323080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3456,9 +3740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57240</xdr:colOff>
+      <xdr:colOff>56160</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3468,7 +3752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4881240" y="6800760"/>
-          <a:ext cx="1849680" cy="293760"/>
+          <a:ext cx="1848600" cy="292680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3524,9 +3808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>61200</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3536,7 +3820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285840" y="7229520"/>
-          <a:ext cx="3113280" cy="646200"/>
+          <a:ext cx="3112200" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3592,9 +3876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3604,7 +3888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2227680" y="2187720"/>
-          <a:ext cx="1822680" cy="417600"/>
+          <a:ext cx="1821600" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3647,9 +3931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>140040</xdr:colOff>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3659,7 +3943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2345400" y="1596960"/>
-          <a:ext cx="1798920" cy="760680"/>
+          <a:ext cx="1797840" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3709,9 +3993,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
+      <xdr:colOff>107280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3726,8 +4010,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5445360" y="1950840"/>
-          <a:ext cx="1828440" cy="417600"/>
+          <a:off x="5446440" y="1951920"/>
+          <a:ext cx="1827360" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3770,9 +4054,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3782,7 +4066,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5707440" y="1371600"/>
-          <a:ext cx="1798920" cy="760680"/>
+          <a:ext cx="1797840" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3838,9 +4122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
+      <xdr:colOff>54720</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3850,7 +4134,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="8112240"/>
-          <a:ext cx="1822680" cy="417600"/>
+          <a:ext cx="1821600" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3893,9 +4177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
+      <xdr:colOff>30960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3905,7 +4189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="7540560"/>
-          <a:ext cx="1798920" cy="760680"/>
+          <a:ext cx="1797840" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3961,9 +4245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>646200</xdr:colOff>
+      <xdr:colOff>645120</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3973,7 +4257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2173680" y="11969640"/>
-          <a:ext cx="1809360" cy="417600"/>
+          <a:ext cx="1808280" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4016,9 +4300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>331920</xdr:colOff>
+      <xdr:colOff>330840</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>211320</xdr:rowOff>
+      <xdr:rowOff>210240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4028,7 +4312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2068920" y="9156600"/>
-          <a:ext cx="3602160" cy="1341720"/>
+          <a:ext cx="3601080" cy="1340640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4186,9 +4470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4198,7 +4482,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2189520" y="8766000"/>
-          <a:ext cx="1829160" cy="417600"/>
+          <a:ext cx="1828080" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4241,9 +4525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4253,7 +4537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2367360" y="8483760"/>
-          <a:ext cx="1798920" cy="484200"/>
+          <a:ext cx="1797840" cy="483120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4309,9 +4593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>125640</xdr:colOff>
+      <xdr:colOff>124560</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4321,7 +4605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="797760" y="10753560"/>
-          <a:ext cx="3332160" cy="1271880"/>
+          <a:ext cx="3331080" cy="1270800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4477,9 +4761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>666000</xdr:colOff>
+      <xdr:colOff>664920</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4489,7 +4773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2176920" y="10449000"/>
-          <a:ext cx="1825920" cy="417600"/>
+          <a:ext cx="1824840" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4537,9 +4821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>534600</xdr:colOff>
+      <xdr:colOff>533520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4549,7 +4833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="186120" y="937440"/>
-          <a:ext cx="960480" cy="509760"/>
+          <a:ext cx="959400" cy="508680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4622,9 +4906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4634,7 +4918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="1524240"/>
-          <a:ext cx="960480" cy="509760"/>
+          <a:ext cx="959400" cy="508680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4707,9 +4991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>227880</xdr:rowOff>
+      <xdr:rowOff>226800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4719,7 +5003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5063400" y="426240"/>
-          <a:ext cx="969120" cy="510480"/>
+          <a:ext cx="968040" cy="509400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4792,9 +5076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>212400</xdr:rowOff>
+      <xdr:rowOff>211320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4804,7 +5088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="2301120"/>
-          <a:ext cx="960480" cy="509760"/>
+          <a:ext cx="959400" cy="508680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4877,9 +5161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4889,7 +5173,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="12009240"/>
-          <a:ext cx="960480" cy="509400"/>
+          <a:ext cx="959400" cy="508320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4956,6 +5240,3448 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>816120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>789120</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="シェイプ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1620000" y="5220000"/>
+          <a:ext cx="2158560" cy="1076760"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>ホーム画面</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>797760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="シェイプ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360000" y="3240"/>
+          <a:ext cx="1800000" cy="1436760"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>タスク追加</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>クリック</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>699480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="シェイプ 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4500000" y="0"/>
+          <a:ext cx="1800000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>モーダル</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>追加フォーム</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="シェイプ 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2340000" y="180000"/>
+          <a:ext cx="1980000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 68750"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>97560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299160" y="1869480"/>
+          <a:ext cx="780840" cy="1286280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299160" y="1595160"/>
+          <a:ext cx="1320840" cy="384840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="2200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:endParaRPr b="1" lang="en-US" sz="2200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>726480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矢印: 右 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9450720" y="4339440"/>
+          <a:ext cx="1709280" cy="340560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1446480" y="2907720"/>
+          <a:ext cx="1793520" cy="632880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・作物植える</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>579960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>367920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="932400" y="6148080"/>
+          <a:ext cx="3567600" cy="725400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・勤怠閲覧</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>（月単位・当月から過去</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>年）</a:t>
+          </a:r>
+          <a:br/>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・出勤簿出力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>.xlsx)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6660000" y="2207520"/>
+          <a:ext cx="837000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>470880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3960000" y="1440000"/>
+          <a:ext cx="5760000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>農林水産技術会議事務局研究推進課 スマート農業実証プロジェクト推進チーム</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>804600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10800000" y="3600000"/>
+          <a:ext cx="1980000" cy="759960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・作物成長</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・作物パラメーター不足</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・作物削除</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>187560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="矢印: 右 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1800000" y="3600000"/>
+          <a:ext cx="3780000" cy="378000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>349920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>187920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矢印: 右 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2592000" y="2927520"/>
+          <a:ext cx="1728000" cy="340560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140000" y="2520000"/>
+          <a:ext cx="2672640" cy="424080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・農場テーブルにユーザー追加</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>245880</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>363240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矢印: 右 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8157240" y="7427880"/>
+          <a:ext cx="1743120" cy="340200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>455760</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447120</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9180000" y="6868080"/>
+          <a:ext cx="3242520" cy="1130400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>部下の</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・勤怠閲覧</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・出退勤・日報の修正・削除</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・パスワードの変更</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・出勤簿出力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>.xlsx)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>41400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="フローチャート: 代替処理 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724200" y="6884280"/>
+          <a:ext cx="1006200" cy="4339440"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70ad47"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="527f34"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>勤怠管理システム</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>（管理者画面）</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>163800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523800" y="7795080"/>
+          <a:ext cx="1252440" cy="1936080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79560</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4211640" y="6277320"/>
+          <a:ext cx="3240" cy="606960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="4472c4"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188280</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>415440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5580000" y="7228080"/>
+          <a:ext cx="2746800" cy="244080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>ログイン画面を分ける</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>148680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285840" y="6795360"/>
+          <a:ext cx="4624560" cy="537480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>統括者や人事部門の社員</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>548280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矢印: 右 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1530720" y="2435400"/>
+          <a:ext cx="5129280" cy="132480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>145080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矢印: 右 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2387160" y="2567880"/>
+          <a:ext cx="1752840" cy="339840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235080</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>54720</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矢印: 右 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847520" y="7525440"/>
+          <a:ext cx="1709280" cy="340560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235080</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387360</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847520" y="7033320"/>
+          <a:ext cx="2671920" cy="632880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>管理者用番号とパスワードでログイン</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171360</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>41760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矢印: 右 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1783800" y="10735200"/>
+          <a:ext cx="1718280" cy="340200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>378360</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1679040" y="8379360"/>
+          <a:ext cx="5351040" cy="1117080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>全社員（退職者を含む）の</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・勤怠閲覧</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・出退勤・日報の修正・削除</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・パスワードの変更</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・出勤簿出力（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>.xlsx)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>187200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13320</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矢印: 右 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1799640" y="8065080"/>
+          <a:ext cx="1715760" cy="340200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365040</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>516960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1977480" y="7821000"/>
+          <a:ext cx="2671560" cy="402480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>社員の新規登録</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130320</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41040</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="482760" y="9709560"/>
+          <a:ext cx="4950000" cy="1059120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>全社員（退職者を含む）の</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・就業時間、上司変更などの登録情報管理</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・退職（復職）の処理</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・社員名簿のダウンロード</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・社員の一括登録（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>.xlsx)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矢印: 右 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1787040" y="9481320"/>
+          <a:ext cx="1715040" cy="340200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440000" y="1611720"/>
+          <a:ext cx="2513520" cy="387360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・農林水産省に申請</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>655920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9325800" y="3037320"/>
+          <a:ext cx="2492640" cy="644040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・保有農場データベース初期値</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>548280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>716040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11710800" y="2336760"/>
+          <a:ext cx="1793520" cy="632880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・農場監視</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・肥料追加</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・収穫</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35280</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>188280</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4167360" y="2880000"/>
+          <a:ext cx="2672640" cy="424080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・農場テーブルに作物追加</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1620000" y="3270240"/>
+          <a:ext cx="4860000" cy="424080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1600" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>乱数発生で結果発表</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>187560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="矢印: 右 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1800000" y="4122000"/>
+          <a:ext cx="3960000" cy="378000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="矢印: 右 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3570480" y="1953000"/>
+          <a:ext cx="4709520" cy="207000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="シェイプ 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8280000" y="1800000"/>
+          <a:ext cx="1080000" cy="900000"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>条件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>754200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9310680" y="1980000"/>
+          <a:ext cx="1793520" cy="632880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・申請条件データ</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・手順データ</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>226080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>348840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="矢印: 右 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3098160" y="2136600"/>
+          <a:ext cx="5162040" cy="165960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472c4"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="325490"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>345600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1328040" y="1913040"/>
+          <a:ext cx="2513520" cy="387360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・条件クリアで農場購入</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Yu Gothic"/>
+            </a:rPr>
+            <a:t>・所持金減少</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="シェイプ 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8280000" y="2880000"/>
+          <a:ext cx="1080000" cy="900000"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>農場</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -4973,6 +8699,438 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.83"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="2" style="0" width="7.46"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M52" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M53" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.06"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="86"/>
+      <c r="B1" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="86"/>
+      <c r="G1" s="89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="89" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="92"/>
+    </row>
+    <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="90" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="90" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="94"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="90" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="90" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="90" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="90" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="92"/>
+    </row>
+    <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="90" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="90"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="92"/>
+    </row>
+    <row r="13" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="90"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="90"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="90"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="90"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="92"/>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="90"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="98"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="98"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="100"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="98"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6222,8 +10380,8 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10156,18 +14314,18 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="57.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="49.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="23.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10196,32 +14354,32 @@
       <c r="B2" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="84" t="s">
         <v>202</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="84" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="8"/>
@@ -10442,5 +14600,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/詳細設計.xlsx
+++ b/doc/詳細設計.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="229">
   <si>
     <t xml:space="preserve">ヌルヌルっと動く画面遷移なしで使えるTODOリスト</t>
   </si>
@@ -970,9 +970,15 @@
     <t xml:space="preserve">イベント</t>
   </si>
   <si>
+    <t xml:space="preserve">交付申請書 </t>
+  </si>
+  <si>
     <t xml:space="preserve">交付の対象及び補助率 </t>
   </si>
   <si>
+    <t xml:space="preserve">事業実施計画書</t>
+  </si>
+  <si>
     <t xml:space="preserve">事業実施計画の作成 </t>
   </si>
   <si>
@@ -989,9 +995,6 @@
   </si>
   <si>
     <t xml:space="preserve">補助事業者の区分 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">交付申請書 </t>
   </si>
   <si>
     <t xml:space="preserve">交付決定者 </t>
@@ -1017,7 +1020,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="45">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1287,17 +1290,29 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="18"/>
+      <name val="Yu Gothic"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Yu Gothic"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="游明朝"/>
-      <family val="1"/>
+      <name val="游ゴシック"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1312,6 +1327,13 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2058,79 +2080,79 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2218,9 +2240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>330840</xdr:colOff>
+      <xdr:colOff>330480</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>217440</xdr:rowOff>
+      <xdr:rowOff>217080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2234,7 +2256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="873720" y="2921040"/>
-          <a:ext cx="792000" cy="2325600"/>
+          <a:ext cx="791640" cy="2325240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,9 +2277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>588960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>203760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2267,7 +2289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57240" y="2378160"/>
-          <a:ext cx="2534400" cy="340560"/>
+          <a:ext cx="2534040" cy="340200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2346,9 +2368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>597600</xdr:colOff>
+      <xdr:colOff>597240</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2358,7 +2380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4229640" y="1454040"/>
-          <a:ext cx="1039680" cy="5182200"/>
+          <a:ext cx="1039320" cy="5181840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2451,9 +2473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2463,7 +2485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="4025880"/>
-          <a:ext cx="1821600" cy="416520"/>
+          <a:ext cx="1821240" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2506,9 +2528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>393120</xdr:colOff>
+      <xdr:colOff>392760</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>223200</xdr:rowOff>
+      <xdr:rowOff>222840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2518,7 +2540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2522880" y="3121200"/>
-          <a:ext cx="1207080" cy="759600"/>
+          <a:ext cx="1206720" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2614,9 +2636,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2631,8 +2653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2119320" y="5866920"/>
-          <a:ext cx="1817640" cy="416520"/>
+          <a:off x="2119680" y="5867280"/>
+          <a:ext cx="1817280" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2675,9 +2697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>379080</xdr:colOff>
+      <xdr:colOff>378720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2687,7 +2709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1982520" y="4956120"/>
-          <a:ext cx="2400840" cy="870480"/>
+          <a:ext cx="2400480" cy="870120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2824,9 +2846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>453600</xdr:colOff>
+      <xdr:colOff>453240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2840,7 +2862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7598160" y="2981160"/>
-          <a:ext cx="864000" cy="2319840"/>
+          <a:ext cx="863640" cy="2319480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2861,9 +2883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>483840</xdr:colOff>
+      <xdr:colOff>483480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2873,7 +2895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7292880" y="2314440"/>
-          <a:ext cx="2534400" cy="340560"/>
+          <a:ext cx="2534040" cy="340200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2952,9 +2974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>355320</xdr:colOff>
+      <xdr:colOff>354960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2964,7 +2986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5821920" y="2333520"/>
-          <a:ext cx="1207080" cy="759600"/>
+          <a:ext cx="1206720" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3060,9 +3082,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>95040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3077,8 +3099,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5433840" y="3202920"/>
-          <a:ext cx="1820880" cy="416520"/>
+          <a:off x="5434200" y="3203280"/>
+          <a:ext cx="1820520" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3121,9 +3143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
+      <xdr:colOff>641880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3133,7 +3155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5501160" y="4473720"/>
-          <a:ext cx="1814760" cy="416520"/>
+          <a:ext cx="1814400" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3176,9 +3198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>405360</xdr:colOff>
+      <xdr:colOff>405000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3188,7 +3210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5345640" y="3616200"/>
-          <a:ext cx="2400840" cy="902520"/>
+          <a:ext cx="2400480" cy="902160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3308,9 +3330,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3325,8 +3347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5405400" y="6095520"/>
-          <a:ext cx="1817640" cy="416520"/>
+          <a:off x="5405760" y="6095880"/>
+          <a:ext cx="1817280" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3369,9 +3391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>294480</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>213480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3381,7 +3403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5453640" y="4800600"/>
-          <a:ext cx="2181960" cy="1356480"/>
+          <a:ext cx="2181600" cy="1356120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3560,9 +3582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>597960</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3572,7 +3594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4226400" y="7356600"/>
-          <a:ext cx="1043640" cy="5177880"/>
+          <a:ext cx="1043280" cy="5177520"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3665,9 +3687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
+      <xdr:colOff>346320</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3681,7 +3703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="838800" y="8435880"/>
-          <a:ext cx="842760" cy="2323080"/>
+          <a:ext cx="842400" cy="2322720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3740,9 +3762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
+      <xdr:colOff>55800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3752,7 +3774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4881240" y="6800760"/>
-          <a:ext cx="1848600" cy="292680"/>
+          <a:ext cx="1848240" cy="292320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3808,9 +3830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
+      <xdr:colOff>60840</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3820,7 +3842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285840" y="7229520"/>
-          <a:ext cx="3112200" cy="645120"/>
+          <a:ext cx="3111840" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3876,9 +3898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3888,7 +3910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2227680" y="2187720"/>
-          <a:ext cx="1821600" cy="416520"/>
+          <a:ext cx="1821240" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3931,9 +3953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3943,7 +3965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2345400" y="1596960"/>
-          <a:ext cx="1797840" cy="759600"/>
+          <a:ext cx="1797480" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3993,9 +4015,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>107280</xdr:colOff>
+      <xdr:colOff>107640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -4010,8 +4032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5446440" y="1951920"/>
-          <a:ext cx="1827360" cy="416520"/>
+          <a:off x="5446800" y="1952280"/>
+          <a:ext cx="1827000" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4054,9 +4076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4066,7 +4088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5707440" y="1371600"/>
-          <a:ext cx="1797840" cy="759600"/>
+          <a:ext cx="1797480" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4122,9 +4144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4134,7 +4156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="8112240"/>
-          <a:ext cx="1821600" cy="416520"/>
+          <a:ext cx="1821240" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4177,9 +4199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
+      <xdr:colOff>30600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4189,7 +4211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="7540560"/>
-          <a:ext cx="1797840" cy="759600"/>
+          <a:ext cx="1797480" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4245,9 +4267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>645120</xdr:colOff>
+      <xdr:colOff>644760</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4257,7 +4279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2173680" y="11969640"/>
-          <a:ext cx="1808280" cy="416520"/>
+          <a:ext cx="1807920" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4300,9 +4322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>330840</xdr:colOff>
+      <xdr:colOff>330480</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>210240</xdr:rowOff>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4312,7 +4334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2068920" y="9156600"/>
-          <a:ext cx="3601080" cy="1340640"/>
+          <a:ext cx="3600720" cy="1340280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4470,9 +4492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>13320</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4482,7 +4504,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2189520" y="8766000"/>
-          <a:ext cx="1828080" cy="416520"/>
+          <a:ext cx="1827720" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4525,9 +4547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4537,7 +4559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2367360" y="8483760"/>
-          <a:ext cx="1797840" cy="483120"/>
+          <a:ext cx="1797480" cy="482760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4593,9 +4615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>124200</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4605,7 +4627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="797760" y="10753560"/>
-          <a:ext cx="3331080" cy="1270800"/>
+          <a:ext cx="3330720" cy="1270440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4761,9 +4783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>664560</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4773,7 +4795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2176920" y="10449000"/>
-          <a:ext cx="1824840" cy="416520"/>
+          <a:ext cx="1824480" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4821,9 +4843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>533520</xdr:colOff>
+      <xdr:colOff>533160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4833,7 +4855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="186120" y="937440"/>
-          <a:ext cx="959400" cy="508680"/>
+          <a:ext cx="959040" cy="508320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4906,9 +4928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4918,7 +4940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="1524240"/>
-          <a:ext cx="959400" cy="508680"/>
+          <a:ext cx="959040" cy="508320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4991,9 +5013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>207720</xdr:colOff>
+      <xdr:colOff>207360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>226800</xdr:rowOff>
+      <xdr:rowOff>226440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5003,7 +5025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5063400" y="426240"/>
-          <a:ext cx="968040" cy="509400"/>
+          <a:ext cx="967680" cy="509040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5076,9 +5098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>211320</xdr:rowOff>
+      <xdr:rowOff>210960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5088,7 +5110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="2301120"/>
-          <a:ext cx="959400" cy="508680"/>
+          <a:ext cx="959040" cy="508320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5161,9 +5183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5173,7 +5195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="12009240"/>
-          <a:ext cx="959400" cy="508320"/>
+          <a:ext cx="959040" cy="507960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5251,9 +5273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>789120</xdr:colOff>
+      <xdr:colOff>788760</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5263,7 +5285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1620000" y="5220000"/>
-          <a:ext cx="2158560" cy="1076760"/>
+          <a:ext cx="2158200" cy="1076400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5324,9 +5346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>797760</xdr:colOff>
+      <xdr:colOff>797400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5336,7 +5358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="360000" y="3240"/>
-          <a:ext cx="1800000" cy="1436760"/>
+          <a:ext cx="1798920" cy="1436400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5409,9 +5431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
+      <xdr:colOff>60840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5420,8 +5442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4500000" y="0"/>
-          <a:ext cx="1800000" cy="1440000"/>
+          <a:off x="4499280" y="0"/>
+          <a:ext cx="1799640" cy="1439640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5511,9 +5533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>519480</xdr:colOff>
+      <xdr:colOff>519120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5522,8 +5544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2340000" y="180000"/>
-          <a:ext cx="1980000" cy="720000"/>
+          <a:off x="2339640" y="180000"/>
+          <a:ext cx="1979280" cy="719640"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5563,9 +5585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
+      <xdr:colOff>97200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5579,7 +5601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="299160" y="1869480"/>
-          <a:ext cx="780840" cy="1286280"/>
+          <a:ext cx="780480" cy="1285920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5600,9 +5622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5612,7 +5634,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="299160" y="1595160"/>
-          <a:ext cx="1320840" cy="384840"/>
+          <a:ext cx="1320480" cy="384480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5651,7 +5673,7 @@
             </a:rPr>
             <a:t>ユーザー</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="2200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="2200" spc="-1" strike="noStrike">
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -5668,9 +5690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>810000</xdr:colOff>
+      <xdr:colOff>809640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5680,7 +5702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9450720" y="4339440"/>
-          <a:ext cx="1709280" cy="340560"/>
+          <a:ext cx="1708920" cy="340200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5723,9 +5745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>367920</xdr:colOff>
+      <xdr:colOff>367560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5735,7 +5757,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1446480" y="2907720"/>
-          <a:ext cx="1793520" cy="632880"/>
+          <a:ext cx="1793160" cy="632520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5791,9 +5813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>367920</xdr:colOff>
+      <xdr:colOff>367560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5803,7 +5825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="932400" y="6148080"/>
-          <a:ext cx="3567600" cy="725400"/>
+          <a:ext cx="3567240" cy="725040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5940,9 +5962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>215280</xdr:colOff>
+      <xdr:colOff>214920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5956,7 +5978,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6660000" y="2207520"/>
-          <a:ext cx="837000" cy="1260000"/>
+          <a:ext cx="836640" cy="1259640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5977,9 +5999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>182520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5989,7 +6011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3960000" y="1440000"/>
-          <a:ext cx="5760000" cy="360000"/>
+          <a:ext cx="5759640" cy="359640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6058,9 +6080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>804600</xdr:colOff>
+      <xdr:colOff>804240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
+      <xdr:rowOff>183960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6070,7 +6092,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10800000" y="3600000"/>
-          <a:ext cx="1980000" cy="759960"/>
+          <a:ext cx="1979640" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6166,9 +6188,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -6183,8 +6205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1800000" y="3600000"/>
-          <a:ext cx="3780000" cy="378000"/>
+          <a:off x="1800360" y="3600360"/>
+          <a:ext cx="3779640" cy="377640"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -6227,9 +6249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6239,7 +6261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2592000" y="2927520"/>
-          <a:ext cx="1728000" cy="340560"/>
+          <a:ext cx="1727640" cy="340200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -6282,9 +6304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6294,7 +6316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4140000" y="2520000"/>
-          <a:ext cx="2672640" cy="424080"/>
+          <a:ext cx="2672280" cy="423720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6357,9 +6379,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>245880</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -6374,8 +6396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="8157240" y="7427880"/>
-          <a:ext cx="1743120" cy="340200"/>
+          <a:off x="8157600" y="7428240"/>
+          <a:ext cx="1742760" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -6418,9 +6440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>447120</xdr:colOff>
+      <xdr:colOff>446760</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6430,7 +6452,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9180000" y="6868080"/>
-          <a:ext cx="3242520" cy="1130400"/>
+          <a:ext cx="3242160" cy="1130040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6609,9 +6631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>597960</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6621,7 +6643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3724200" y="6884280"/>
-          <a:ext cx="1006200" cy="4339440"/>
+          <a:ext cx="1005840" cy="4339080"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6714,9 +6736,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6730,7 +6752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="523800" y="7795080"/>
-          <a:ext cx="1252440" cy="1936080"/>
+          <a:ext cx="1252080" cy="1935720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6789,9 +6811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>415440</xdr:colOff>
+      <xdr:colOff>415080</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6801,7 +6823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5580000" y="7228080"/>
-          <a:ext cx="2746800" cy="244080"/>
+          <a:ext cx="2746440" cy="243720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6857,9 +6879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6869,7 +6891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285840" y="6795360"/>
-          <a:ext cx="4624560" cy="537480"/>
+          <a:ext cx="4624200" cy="537120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6925,9 +6947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6937,7 +6959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1530720" y="2435400"/>
-          <a:ext cx="5129280" cy="132480"/>
+          <a:ext cx="5128920" cy="132120"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -6974,9 +6996,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>145080</xdr:colOff>
+      <xdr:colOff>145440</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -6991,8 +7013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2387160" y="2567880"/>
-          <a:ext cx="1752840" cy="339840"/>
+          <a:off x="2387520" y="2568240"/>
+          <a:ext cx="1752480" cy="339480"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7035,9 +7057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7047,7 +7069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1847520" y="7525440"/>
-          <a:ext cx="1709280" cy="340560"/>
+          <a:ext cx="1708920" cy="340200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7090,9 +7112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>387360</xdr:colOff>
+      <xdr:colOff>387000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7102,7 +7124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1847520" y="7033320"/>
-          <a:ext cx="2671920" cy="632880"/>
+          <a:ext cx="2671560" cy="632520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7158,9 +7180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>629640</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7170,7 +7192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1783800" y="10735200"/>
-          <a:ext cx="1718280" cy="340200"/>
+          <a:ext cx="1717920" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7213,9 +7235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>378360</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7225,7 +7247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1679040" y="8379360"/>
-          <a:ext cx="5351040" cy="1117080"/>
+          <a:ext cx="5350680" cy="1116720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7383,9 +7405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>13320</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7395,7 +7417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1799640" y="8065080"/>
-          <a:ext cx="1715760" cy="340200"/>
+          <a:ext cx="1715400" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7438,9 +7460,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>516960</xdr:colOff>
+      <xdr:colOff>516600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7450,7 +7472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1977480" y="7821000"/>
-          <a:ext cx="2671560" cy="402480"/>
+          <a:ext cx="2671200" cy="402120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7506,9 +7528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>41040</xdr:colOff>
+      <xdr:colOff>40680</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7518,7 +7540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="482760" y="9709560"/>
-          <a:ext cx="4950000" cy="1059120"/>
+          <a:ext cx="4949640" cy="1058760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7674,9 +7696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>629640</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7686,7 +7708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1787040" y="9481320"/>
-          <a:ext cx="1715040" cy="340200"/>
+          <a:ext cx="1714680" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7729,9 +7751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>451440</xdr:colOff>
+      <xdr:colOff>451080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7741,7 +7763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1440000" y="1611720"/>
-          <a:ext cx="2513520" cy="387360"/>
+          <a:ext cx="2513160" cy="387000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7797,9 +7819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
+      <xdr:colOff>655560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7809,7 +7831,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9325800" y="3037320"/>
-          <a:ext cx="2492640" cy="644040"/>
+          <a:ext cx="2492280" cy="643680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7904,9 +7926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>715680</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7916,7 +7938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11710800" y="2336760"/>
-          <a:ext cx="1793520" cy="632880"/>
+          <a:ext cx="1793160" cy="632520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8018,9 +8040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8030,7 +8052,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4167360" y="2880000"/>
-          <a:ext cx="2672640" cy="424080"/>
+          <a:ext cx="2672280" cy="423720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8099,9 +8121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>458280</xdr:colOff>
+      <xdr:colOff>457920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8111,7 +8133,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1620000" y="3270240"/>
-          <a:ext cx="4860000" cy="424080"/>
+          <a:ext cx="4859640" cy="423720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8184,9 +8206,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -8201,8 +8223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1800000" y="4122000"/>
-          <a:ext cx="3960000" cy="378000"/>
+          <a:off x="1800360" y="4122360"/>
+          <a:ext cx="3959640" cy="377640"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -8245,9 +8267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>368640</xdr:colOff>
+      <xdr:colOff>368280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8257,7 +8279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3570480" y="1953000"/>
-          <a:ext cx="4709520" cy="207000"/>
+          <a:ext cx="4709160" cy="206640"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -8300,9 +8322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>635760</xdr:colOff>
+      <xdr:colOff>635400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8312,7 +8334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8280000" y="1800000"/>
-          <a:ext cx="1080000" cy="900000"/>
+          <a:ext cx="1079640" cy="899640"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -8339,7 +8361,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="游明朝"/>
@@ -8369,9 +8395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>754200</xdr:colOff>
+      <xdr:colOff>753840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8381,7 +8407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9310680" y="1980000"/>
-          <a:ext cx="1793520" cy="632880"/>
+          <a:ext cx="1793160" cy="632520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8467,9 +8493,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>226440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -8484,8 +8510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3098160" y="2136600"/>
-          <a:ext cx="5162040" cy="165960"/>
+          <a:off x="3098520" y="2136960"/>
+          <a:ext cx="5161680" cy="165600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -8528,9 +8554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>339480</xdr:colOff>
+      <xdr:colOff>339120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8540,7 +8566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1328040" y="1913040"/>
-          <a:ext cx="2513520" cy="387360"/>
+          <a:ext cx="2513160" cy="387000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8619,9 +8645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>635760</xdr:colOff>
+      <xdr:colOff>635400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8631,7 +8657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8280000" y="2880000"/>
-          <a:ext cx="1080000" cy="900000"/>
+          <a:ext cx="1079640" cy="899640"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -8658,7 +8684,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="游明朝"/>
@@ -8724,8 +8754,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.83"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8747,41 +8777,41 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="2" style="0" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="2" style="2" width="7.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="58" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="58" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8799,14 +8829,14 @@
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -8875,244 +8905,246 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="3.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="43.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86"/>
-      <c r="B1" s="87" t="s">
+      <c r="A1" s="85"/>
+      <c r="B1" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="87" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="89" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="88"/>
+    </row>
+    <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="89" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="89" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90" t="n">
+      <c r="A3" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="89" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="88" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="90" t="n">
+      <c r="A4" s="89" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="92"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="88" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="90" t="n">
+      <c r="A5" s="89" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="89" t="s">
+      <c r="B5" s="88" t="s">
         <v>221</v>
       </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="94" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="90" t="n">
+      <c r="A6" s="89" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="91"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="95"/>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="88" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="90" t="n">
+      <c r="A7" s="89" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="89" t="s">
-        <v>217</v>
+      <c r="B7" s="88"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="88" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="90" t="n">
+      <c r="A8" s="89" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="89" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="88" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90" t="n">
+      <c r="A9" s="89" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="89" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="90" t="n">
+      <c r="B9" s="90"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="88" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="89" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="92"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="88" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="90" t="n">
+      <c r="A11" s="89" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="90"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="92"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="89"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="88" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="90"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="89" t="s">
-        <v>222</v>
-      </c>
+      <c r="A13" s="89"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="90"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="89" t="s">
-        <v>225</v>
+      <c r="A14" s="89"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="88" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="90"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="89" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="88" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="90"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="92"/>
+    <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="89"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="88" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="90"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="89" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="89"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="97"/>
       <c r="D18" s="98"/>
       <c r="E18" s="97"/>
       <c r="F18" s="99"/>
-      <c r="G18" s="98"/>
+      <c r="G18" s="88" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="96"/>
@@ -9125,12 +9157,16 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="100"/>
-      <c r="B20" s="101"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="101"/>
       <c r="D20" s="102"/>
       <c r="E20" s="101"/>
       <c r="F20" s="103"/>
       <c r="G20" s="98"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="101"/>
+      <c r="G21" s="98"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/詳細設計.xlsx
+++ b/doc/詳細設計.xlsx
@@ -1020,7 +1020,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1330,17 +1330,25 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="1"/>
     </font>
@@ -1739,7 +1747,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2100,27 +2108,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2128,15 +2136,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2144,15 +2152,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8908,16 +8924,16 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="28.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="3.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="28.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="43.06"/>
   </cols>
@@ -8935,214 +8951,214 @@
       <c r="F1" s="85"/>
       <c r="G1" s="88"/>
     </row>
-    <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="89" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="88" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="90" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="88" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="90" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="89" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="88" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="90" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="89" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="94" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="92" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="89" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="90"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="95"/>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="90" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="89" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="88" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="90" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="89" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="88" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="90" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="89" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="88" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="89" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="88" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="90" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="89" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="91"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="92"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="89"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="88" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="90" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="89"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="92"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="89"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="88" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="90" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="89"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="88" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="90" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="89"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="88" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="90" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="89"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="92"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="96"/>
-      <c r="B18" s="93"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="97"/>
       <c r="D18" s="98"/>
       <c r="E18" s="97"/>
       <c r="F18" s="99"/>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="90" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9165,8 +9181,8 @@
       <c r="G20" s="98"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="101"/>
-      <c r="G21" s="98"/>
+      <c r="B21" s="104"/>
+      <c r="G21" s="105"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/詳細設計.xlsx
+++ b/doc/詳細設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="完成RESTfullTODOアプリ概念図" sheetId="1" state="visible" r:id="rId2"/>
@@ -227,9 +227,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="230">
   <si>
     <t xml:space="preserve">ヌルヌルっと動く画面遷移なしで使えるTODOリスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重要度別で表示！</t>
   </si>
   <si>
     <t xml:space="preserve">機能</t>
@@ -2256,9 +2259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>330120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
+      <xdr:rowOff>216720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2272,7 +2275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="873720" y="2921040"/>
-          <a:ext cx="791640" cy="2325240"/>
+          <a:ext cx="791280" cy="2324880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2293,9 +2296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>588960</xdr:colOff>
+      <xdr:colOff>588600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2305,7 +2308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57240" y="2378160"/>
-          <a:ext cx="2534040" cy="340200"/>
+          <a:ext cx="2533680" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2384,9 +2387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2396,7 +2399,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4229640" y="1454040"/>
-          <a:ext cx="1039320" cy="5181840"/>
+          <a:ext cx="1038960" cy="5181480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2489,9 +2492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2501,7 +2504,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="4025880"/>
-          <a:ext cx="1821240" cy="416160"/>
+          <a:ext cx="1820880" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2544,9 +2547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>392760</xdr:colOff>
+      <xdr:colOff>392400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>222840</xdr:rowOff>
+      <xdr:rowOff>222480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2556,7 +2559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2522880" y="3121200"/>
-          <a:ext cx="1206720" cy="759240"/>
+          <a:ext cx="1206360" cy="758880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2652,9 +2655,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>117720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2669,8 +2672,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2119680" y="5867280"/>
-          <a:ext cx="1817280" cy="416160"/>
+          <a:off x="2120040" y="5867640"/>
+          <a:ext cx="1816920" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2713,9 +2716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>378720</xdr:colOff>
+      <xdr:colOff>378360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2725,7 +2728,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1982520" y="4956120"/>
-          <a:ext cx="2400480" cy="870120"/>
+          <a:ext cx="2400120" cy="869760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2862,9 +2865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>453240</xdr:colOff>
+      <xdr:colOff>452880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2878,7 +2881,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7598160" y="2981160"/>
-          <a:ext cx="863640" cy="2319480"/>
+          <a:ext cx="863280" cy="2319120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2899,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>483480</xdr:colOff>
+      <xdr:colOff>483120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2911,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7292880" y="2314440"/>
-          <a:ext cx="2534040" cy="340200"/>
+          <a:ext cx="2533680" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2990,9 +2993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>354960</xdr:colOff>
+      <xdr:colOff>354600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3002,7 +3005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5821920" y="2333520"/>
-          <a:ext cx="1206720" cy="759240"/>
+          <a:ext cx="1206360" cy="758880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3098,9 +3101,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3115,8 +3118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5434200" y="3203280"/>
-          <a:ext cx="1820520" cy="416160"/>
+          <a:off x="5434560" y="3203640"/>
+          <a:ext cx="1820160" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3159,9 +3162,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>641880</xdr:colOff>
+      <xdr:colOff>641520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3171,7 +3174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5501160" y="4473720"/>
-          <a:ext cx="1814400" cy="416160"/>
+          <a:ext cx="1814040" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3214,9 +3217,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>405000</xdr:colOff>
+      <xdr:colOff>404640</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3226,7 +3229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5345640" y="3616200"/>
-          <a:ext cx="2400480" cy="902160"/>
+          <a:ext cx="2400120" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3346,9 +3349,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3363,8 +3366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5405760" y="6095880"/>
-          <a:ext cx="1817280" cy="416160"/>
+          <a:off x="5406120" y="6096240"/>
+          <a:ext cx="1816920" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3407,9 +3410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>293760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>213120</xdr:rowOff>
+      <xdr:rowOff>212760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3419,7 +3422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5453640" y="4800600"/>
-          <a:ext cx="2181600" cy="1356120"/>
+          <a:ext cx="2181240" cy="1355760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3598,9 +3601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
+      <xdr:colOff>597600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3610,7 +3613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4226400" y="7356600"/>
-          <a:ext cx="1043280" cy="5177520"/>
+          <a:ext cx="1042920" cy="5177160"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3703,9 +3706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>346320</xdr:colOff>
+      <xdr:colOff>345960</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3719,7 +3722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="838800" y="8435880"/>
-          <a:ext cx="842400" cy="2322720"/>
+          <a:ext cx="842040" cy="2322360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3778,9 +3781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
+      <xdr:colOff>55440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3790,7 +3793,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4881240" y="6800760"/>
-          <a:ext cx="1848240" cy="292320"/>
+          <a:ext cx="1847880" cy="291960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3846,9 +3849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
+      <xdr:colOff>60480</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3858,7 +3861,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285840" y="7229520"/>
-          <a:ext cx="3111840" cy="644760"/>
+          <a:ext cx="3111480" cy="644400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3914,9 +3917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>44280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3926,7 +3929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2227680" y="2187720"/>
-          <a:ext cx="1821240" cy="416160"/>
+          <a:ext cx="1820880" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3969,9 +3972,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>138240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3981,7 +3984,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2345400" y="1596960"/>
-          <a:ext cx="1797480" cy="759240"/>
+          <a:ext cx="1797120" cy="758880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4031,9 +4034,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -4048,8 +4051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5446800" y="1952280"/>
-          <a:ext cx="1827000" cy="416160"/>
+          <a:off x="5447160" y="1952640"/>
+          <a:ext cx="1826640" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4092,9 +4095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4104,7 +4107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5707440" y="1371600"/>
-          <a:ext cx="1797480" cy="759240"/>
+          <a:ext cx="1797120" cy="758880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4160,9 +4163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4172,7 +4175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="8112240"/>
-          <a:ext cx="1821240" cy="416160"/>
+          <a:ext cx="1820880" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4215,9 +4218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
+      <xdr:colOff>30240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4227,7 +4230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237400" y="7540560"/>
-          <a:ext cx="1797480" cy="759240"/>
+          <a:ext cx="1797120" cy="758880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4283,9 +4286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>644760</xdr:colOff>
+      <xdr:colOff>644400</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4295,7 +4298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2173680" y="11969640"/>
-          <a:ext cx="1807920" cy="416160"/>
+          <a:ext cx="1807560" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4338,9 +4341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>330120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4350,7 +4353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2068920" y="9156600"/>
-          <a:ext cx="3600720" cy="1340280"/>
+          <a:ext cx="3600360" cy="1339920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4508,9 +4511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4520,7 +4523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2189520" y="8766000"/>
-          <a:ext cx="1827720" cy="416160"/>
+          <a:ext cx="1827360" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4563,9 +4566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>160560</xdr:colOff>
+      <xdr:colOff>160200</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4575,7 +4578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2367360" y="8483760"/>
-          <a:ext cx="1797480" cy="482760"/>
+          <a:ext cx="1797120" cy="482400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4631,9 +4634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>124200</xdr:colOff>
+      <xdr:colOff>123840</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4643,7 +4646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="797760" y="10753560"/>
-          <a:ext cx="3330720" cy="1270440"/>
+          <a:ext cx="3330360" cy="1270080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4799,9 +4802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>664560</xdr:colOff>
+      <xdr:colOff>664200</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4811,7 +4814,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2176920" y="10449000"/>
-          <a:ext cx="1824480" cy="416160"/>
+          <a:ext cx="1824120" cy="415800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4859,9 +4862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>533160</xdr:colOff>
+      <xdr:colOff>532800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4871,7 +4874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="186120" y="937440"/>
-          <a:ext cx="959040" cy="508320"/>
+          <a:ext cx="958680" cy="507960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4944,9 +4947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4956,7 +4959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="1524240"/>
-          <a:ext cx="959040" cy="508320"/>
+          <a:ext cx="958680" cy="507960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5029,9 +5032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>207360</xdr:colOff>
+      <xdr:colOff>207000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>226440</xdr:rowOff>
+      <xdr:rowOff>226080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5041,7 +5044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5063400" y="426240"/>
-          <a:ext cx="967680" cy="509040"/>
+          <a:ext cx="967320" cy="508680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5114,9 +5117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>210960</xdr:rowOff>
+      <xdr:rowOff>210600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5126,7 +5129,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="2301120"/>
-          <a:ext cx="959040" cy="508320"/>
+          <a:ext cx="958680" cy="507960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5199,9 +5202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5211,7 +5214,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="194040" y="12009240"/>
-          <a:ext cx="959040" cy="507960"/>
+          <a:ext cx="958680" cy="507600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5289,9 +5292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>788760</xdr:colOff>
+      <xdr:colOff>788400</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5301,7 +5304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1620000" y="5220000"/>
-          <a:ext cx="2158200" cy="1076400"/>
+          <a:ext cx="2157840" cy="1076040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5362,9 +5365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>797400</xdr:colOff>
+      <xdr:colOff>797040</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5374,7 +5377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="360000" y="3240"/>
-          <a:ext cx="1798920" cy="1436400"/>
+          <a:ext cx="1798560" cy="1436040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5447,9 +5450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
+      <xdr:colOff>60480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5459,7 +5462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4499280" y="0"/>
-          <a:ext cx="1799640" cy="1439640"/>
+          <a:ext cx="1799280" cy="1439280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5549,9 +5552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>519120</xdr:colOff>
+      <xdr:colOff>518760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5561,7 +5564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2339640" y="180000"/>
-          <a:ext cx="1979280" cy="719640"/>
+          <a:ext cx="1978920" cy="719280"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5601,9 +5604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5617,7 +5620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="299160" y="1869480"/>
-          <a:ext cx="780480" cy="1285920"/>
+          <a:ext cx="780120" cy="1285560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5638,9 +5641,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5650,7 +5653,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="299160" y="1595160"/>
-          <a:ext cx="1320480" cy="384480"/>
+          <a:ext cx="1320120" cy="384120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5706,9 +5709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>809640</xdr:colOff>
+      <xdr:colOff>809280</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5718,7 +5721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9450720" y="4339440"/>
-          <a:ext cx="1708920" cy="340200"/>
+          <a:ext cx="1708560" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5761,9 +5764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>367560</xdr:colOff>
+      <xdr:colOff>367200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5773,7 +5776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1446480" y="2907720"/>
-          <a:ext cx="1793160" cy="632520"/>
+          <a:ext cx="1792800" cy="632160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5829,9 +5832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>367560</xdr:colOff>
+      <xdr:colOff>367200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5841,7 +5844,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="932400" y="6148080"/>
-          <a:ext cx="3567240" cy="725040"/>
+          <a:ext cx="3566880" cy="724680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5978,9 +5981,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
+      <xdr:colOff>214560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5994,7 +5997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6660000" y="2207520"/>
-          <a:ext cx="836640" cy="1259640"/>
+          <a:ext cx="836280" cy="1259280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6015,9 +6018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
+      <xdr:colOff>182160</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6027,7 +6030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3960000" y="1440000"/>
-          <a:ext cx="5759640" cy="359640"/>
+          <a:ext cx="5759280" cy="359280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6096,9 +6099,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>804240</xdr:colOff>
+      <xdr:colOff>803880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>183960</xdr:rowOff>
+      <xdr:rowOff>183600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6108,7 +6111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10800000" y="3600000"/>
-          <a:ext cx="1979640" cy="759600"/>
+          <a:ext cx="1979280" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6204,9 +6207,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>188280</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -6221,8 +6224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1800360" y="3600360"/>
-          <a:ext cx="3779640" cy="377640"/>
+          <a:off x="1800720" y="3600720"/>
+          <a:ext cx="3779280" cy="377280"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -6265,9 +6268,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6277,7 +6280,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2592000" y="2927520"/>
-          <a:ext cx="1727640" cy="340200"/>
+          <a:ext cx="1727280" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -6320,9 +6323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>160560</xdr:colOff>
+      <xdr:colOff>160200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6332,7 +6335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4140000" y="2520000"/>
-          <a:ext cx="2672280" cy="423720"/>
+          <a:ext cx="2671920" cy="423360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6395,9 +6398,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>246240</xdr:colOff>
+      <xdr:colOff>246600</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -6412,8 +6415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="8157600" y="7428240"/>
-          <a:ext cx="1742760" cy="339840"/>
+          <a:off x="8157960" y="7428600"/>
+          <a:ext cx="1742400" cy="339480"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -6456,9 +6459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>446760</xdr:colOff>
+      <xdr:colOff>446400</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6468,7 +6471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9180000" y="6868080"/>
-          <a:ext cx="3242160" cy="1130040"/>
+          <a:ext cx="3241800" cy="1129680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6647,9 +6650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
+      <xdr:colOff>597600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6659,7 +6662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3724200" y="6884280"/>
-          <a:ext cx="1005840" cy="4339080"/>
+          <a:ext cx="1005480" cy="4338720"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6752,9 +6755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6768,7 +6771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="523800" y="7795080"/>
-          <a:ext cx="1252080" cy="1935720"/>
+          <a:ext cx="1251720" cy="1935360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6827,9 +6830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>415080</xdr:colOff>
+      <xdr:colOff>414720</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6839,7 +6842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5580000" y="7228080"/>
-          <a:ext cx="2746440" cy="243720"/>
+          <a:ext cx="2746080" cy="243360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6895,9 +6898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6907,7 +6910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285840" y="6795360"/>
-          <a:ext cx="4624200" cy="537120"/>
+          <a:ext cx="4623840" cy="536760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6963,9 +6966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6975,7 +6978,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1530720" y="2435400"/>
-          <a:ext cx="5128920" cy="132120"/>
+          <a:ext cx="5128560" cy="131760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7012,9 +7015,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>145440</xdr:colOff>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -7029,8 +7032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2387520" y="2568240"/>
-          <a:ext cx="1752480" cy="339480"/>
+          <a:off x="2387880" y="2568600"/>
+          <a:ext cx="1752120" cy="339120"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7073,9 +7076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7085,7 +7088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1847520" y="7525440"/>
-          <a:ext cx="1708920" cy="340200"/>
+          <a:ext cx="1708560" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7128,9 +7131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>387000</xdr:colOff>
+      <xdr:colOff>386640</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7140,7 +7143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1847520" y="7033320"/>
-          <a:ext cx="2671560" cy="632520"/>
+          <a:ext cx="2671200" cy="632160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7196,9 +7199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>629640</xdr:colOff>
+      <xdr:colOff>629280</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7208,7 +7211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1783800" y="10735200"/>
-          <a:ext cx="1717920" cy="339840"/>
+          <a:ext cx="1717560" cy="339480"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7251,9 +7254,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>377640</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7263,7 +7266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1679040" y="8379360"/>
-          <a:ext cx="5350680" cy="1116720"/>
+          <a:ext cx="5350320" cy="1116360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7421,9 +7424,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7433,7 +7436,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1799640" y="8065080"/>
-          <a:ext cx="1715400" cy="339840"/>
+          <a:ext cx="1715040" cy="339480"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7476,9 +7479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>516600</xdr:colOff>
+      <xdr:colOff>516240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7488,7 +7491,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1977480" y="7821000"/>
-          <a:ext cx="2671200" cy="402120"/>
+          <a:ext cx="2670840" cy="401760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7544,9 +7547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>40680</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7556,7 +7559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="482760" y="9709560"/>
-          <a:ext cx="4949640" cy="1058760"/>
+          <a:ext cx="4949280" cy="1058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7712,9 +7715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>629640</xdr:colOff>
+      <xdr:colOff>629280</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7724,7 +7727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1787040" y="9481320"/>
-          <a:ext cx="1714680" cy="339840"/>
+          <a:ext cx="1714320" cy="339480"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -7767,9 +7770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>451080</xdr:colOff>
+      <xdr:colOff>450720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7779,7 +7782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1440000" y="1611720"/>
-          <a:ext cx="2513160" cy="387000"/>
+          <a:ext cx="2512800" cy="386640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7835,9 +7838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>655560</xdr:colOff>
+      <xdr:colOff>655200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7847,7 +7850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9325800" y="3037320"/>
-          <a:ext cx="2492280" cy="643680"/>
+          <a:ext cx="2491920" cy="643320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7942,9 +7945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>715680</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7954,7 +7957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11710800" y="2336760"/>
-          <a:ext cx="1793160" cy="632520"/>
+          <a:ext cx="1792800" cy="632160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8056,9 +8059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8068,7 +8071,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4167360" y="2880000"/>
-          <a:ext cx="2672280" cy="423720"/>
+          <a:ext cx="2671920" cy="423360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8137,9 +8140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457920</xdr:colOff>
+      <xdr:colOff>457560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8149,7 +8152,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1620000" y="3270240"/>
-          <a:ext cx="4859640" cy="423720"/>
+          <a:ext cx="4859280" cy="423360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8222,9 +8225,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>188280</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -8239,8 +8242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1800360" y="4122360"/>
-          <a:ext cx="3959640" cy="377640"/>
+          <a:off x="1800720" y="4122720"/>
+          <a:ext cx="3959280" cy="377280"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -8283,9 +8286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>368280</xdr:colOff>
+      <xdr:colOff>367920</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8295,7 +8298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3570480" y="1953000"/>
-          <a:ext cx="4709160" cy="206640"/>
+          <a:ext cx="4708800" cy="206280"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -8338,9 +8341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>635400</xdr:colOff>
+      <xdr:colOff>635040</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8350,7 +8353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8280000" y="1800000"/>
-          <a:ext cx="1079640" cy="899640"/>
+          <a:ext cx="1079280" cy="899280"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -8411,9 +8414,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>753840</xdr:colOff>
+      <xdr:colOff>753480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8423,7 +8426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9310680" y="1980000"/>
-          <a:ext cx="1793160" cy="632520"/>
+          <a:ext cx="1792800" cy="632160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8509,9 +8512,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -8526,8 +8529,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3098520" y="2136960"/>
-          <a:ext cx="5161680" cy="165600"/>
+          <a:off x="3098880" y="2137320"/>
+          <a:ext cx="5161320" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -8570,9 +8573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>339120</xdr:colOff>
+      <xdr:colOff>338760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8582,7 +8585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1328040" y="1913040"/>
-          <a:ext cx="2513160" cy="387000"/>
+          <a:ext cx="2512800" cy="386640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8661,9 +8664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>635400</xdr:colOff>
+      <xdr:colOff>635040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8673,7 +8676,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8280000" y="2880000"/>
-          <a:ext cx="1079640" cy="899640"/>
+          <a:ext cx="1079280" cy="899280"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -8733,9 +8736,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8744,6 +8747,11 @@
     <row r="1" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8804,31 +8812,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8846,14 +8854,14 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8888,12 +8896,12 @@
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8923,7 +8931,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -8941,12 +8949,12 @@
     <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="85"/>
       <c r="B1" s="86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C1" s="86"/>
       <c r="D1" s="87"/>
       <c r="E1" s="86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" s="85"/>
       <c r="G1" s="88"/>
@@ -8956,14 +8964,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="92"/>
       <c r="E2" s="91"/>
       <c r="F2" s="93"/>
       <c r="G2" s="90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8971,14 +8979,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C3" s="94"/>
       <c r="D3" s="92"/>
       <c r="E3" s="94"/>
       <c r="F3" s="93"/>
       <c r="G3" s="90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8986,14 +8994,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C4" s="91"/>
       <c r="D4" s="92"/>
       <c r="E4" s="91"/>
       <c r="F4" s="93"/>
       <c r="G4" s="90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9001,14 +9009,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C5" s="94"/>
       <c r="D5" s="92"/>
       <c r="E5" s="91"/>
       <c r="F5" s="93"/>
       <c r="G5" s="92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9016,14 +9024,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="92"/>
       <c r="E6" s="91"/>
       <c r="F6" s="95"/>
       <c r="G6" s="90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9036,7 +9044,7 @@
       <c r="E7" s="94"/>
       <c r="F7" s="93"/>
       <c r="G7" s="90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9049,7 +9057,7 @@
       <c r="E8" s="91"/>
       <c r="F8" s="93"/>
       <c r="G8" s="90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9062,7 +9070,7 @@
       <c r="E9" s="94"/>
       <c r="F9" s="93"/>
       <c r="G9" s="90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9075,7 +9083,7 @@
       <c r="E10" s="94"/>
       <c r="F10" s="93"/>
       <c r="G10" s="90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9097,7 +9105,7 @@
       <c r="E12" s="94"/>
       <c r="F12" s="93"/>
       <c r="G12" s="90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,7 +9125,7 @@
       <c r="E14" s="94"/>
       <c r="F14" s="93"/>
       <c r="G14" s="90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,7 +9136,7 @@
       <c r="E15" s="94"/>
       <c r="F15" s="93"/>
       <c r="G15" s="90" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9139,7 +9147,7 @@
       <c r="E16" s="94"/>
       <c r="F16" s="93"/>
       <c r="G16" s="90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9159,7 +9167,7 @@
       <c r="E18" s="97"/>
       <c r="F18" s="99"/>
       <c r="G18" s="90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9217,10 +9225,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -9229,10 +9237,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -9241,10 +9249,10 @@
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9253,10 +9261,10 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9265,10 +9273,10 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -9277,10 +9285,10 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -9575,49 +9583,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="10"/>
@@ -9629,7 +9637,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -9639,21 +9647,21 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -9699,13 +9707,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -9716,44 +9724,44 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -9762,38 +9770,38 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -9802,38 +9810,38 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -9842,38 +9850,38 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -9882,16 +9890,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -10007,7 +10015,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -10019,29 +10027,29 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13"/>
       <c r="B3" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -10049,58 +10057,58 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13"/>
       <c r="B4" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -10146,7 +10154,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -10157,10 +10165,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -10171,7 +10179,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -10182,7 +10190,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35"/>
       <c r="B15" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -10192,7 +10200,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -10203,13 +10211,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -10221,7 +10229,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -10234,7 +10242,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -10440,32 +10448,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -10500,221 +10508,221 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -10758,7 +10766,7 @@
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
       <c r="F1" s="61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" s="61"/>
       <c r="H1" s="61"/>
@@ -11012,7 +11020,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -11270,17 +11278,17 @@
     </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
@@ -11291,10 +11299,10 @@
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="66"/>
@@ -11308,10 +11316,10 @@
     </row>
     <row r="5" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="66"/>
@@ -11338,17 +11346,17 @@
     </row>
     <row r="7" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
@@ -11641,10 +11649,10 @@
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="65"/>
       <c r="E11" s="65"/>
@@ -11658,17 +11666,17 @@
     </row>
     <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" s="71"/>
       <c r="E12" s="64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
@@ -11679,17 +11687,17 @@
     </row>
     <row r="13" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G13" s="68"/>
       <c r="H13" s="68"/>
@@ -11717,7 +11725,7 @@
       <c r="D15" s="72"/>
       <c r="E15" s="72"/>
       <c r="F15" s="64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G15" s="64"/>
       <c r="H15" s="64"/>
@@ -11732,7 +11740,7 @@
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
       <c r="F16" s="65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
@@ -11760,7 +11768,7 @@
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
       <c r="F18" s="64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
@@ -11775,25 +11783,25 @@
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
       <c r="F19" s="73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H19" s="73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I19" s="73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J19" s="73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L19" s="73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11804,30 +11812,30 @@
       <c r="F20" s="74"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J20" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K20" s="74"/>
       <c r="L20" s="74"/>
     </row>
     <row r="21" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D21" s="71"/>
       <c r="E21" s="64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F21" s="66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
@@ -11838,17 +11846,17 @@
     </row>
     <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G22" s="68"/>
       <c r="H22" s="68"/>
@@ -11876,7 +11884,7 @@
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
       <c r="F24" s="64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" s="64"/>
       <c r="H24" s="64"/>
@@ -11891,7 +11899,7 @@
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
       <c r="F25" s="65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
@@ -11919,7 +11927,7 @@
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
       <c r="F27" s="64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="64"/>
@@ -11934,25 +11942,25 @@
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
       <c r="F28" s="73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G28" s="73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H28" s="73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I28" s="73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J28" s="73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K28" s="73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L28" s="73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O28" s="75"/>
     </row>
@@ -11964,16 +11972,16 @@
       <c r="F29" s="74"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I29" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J29" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K29" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L29" s="74"/>
       <c r="O29" s="75"/>
@@ -12236,10 +12244,10 @@
     </row>
     <row r="31" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" s="65"/>
@@ -12254,17 +12262,17 @@
     </row>
     <row r="32" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
@@ -12276,17 +12284,17 @@
     </row>
     <row r="33" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D33" s="72"/>
       <c r="E33" s="72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G33" s="68"/>
       <c r="H33" s="68"/>
@@ -12316,7 +12324,7 @@
       <c r="D35" s="72"/>
       <c r="E35" s="72"/>
       <c r="F35" s="64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G35" s="64"/>
       <c r="H35" s="64"/>
@@ -12332,7 +12340,7 @@
       <c r="D36" s="72"/>
       <c r="E36" s="72"/>
       <c r="F36" s="65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G36" s="65"/>
       <c r="H36" s="65"/>
@@ -12362,7 +12370,7 @@
       <c r="D38" s="72"/>
       <c r="E38" s="72"/>
       <c r="F38" s="64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G38" s="64"/>
       <c r="H38" s="64"/>
@@ -12377,25 +12385,25 @@
       <c r="D39" s="72"/>
       <c r="E39" s="72"/>
       <c r="F39" s="73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G39" s="73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H39" s="73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I39" s="73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J39" s="73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K39" s="73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" s="73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12404,40 +12412,40 @@
       <c r="D40" s="72"/>
       <c r="E40" s="72"/>
       <c r="F40" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G40" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H40" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I40" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J40" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K40" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L40" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C41" s="70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D41" s="71"/>
       <c r="E41" s="64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F41" s="66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
@@ -12448,17 +12456,17 @@
     </row>
     <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F42" s="65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
@@ -12486,7 +12494,7 @@
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
       <c r="F44" s="64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G44" s="64"/>
       <c r="H44" s="64"/>
@@ -12501,7 +12509,7 @@
       <c r="D45" s="72"/>
       <c r="E45" s="72"/>
       <c r="F45" s="65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G45" s="65"/>
       <c r="H45" s="65"/>
@@ -12529,7 +12537,7 @@
       <c r="D47" s="72"/>
       <c r="E47" s="72"/>
       <c r="F47" s="64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G47" s="64"/>
       <c r="H47" s="64"/>
@@ -12544,25 +12552,25 @@
       <c r="D48" s="72"/>
       <c r="E48" s="72"/>
       <c r="F48" s="73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G48" s="73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H48" s="73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I48" s="73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J48" s="73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K48" s="73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L48" s="73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12571,16 +12579,16 @@
       <c r="D49" s="72"/>
       <c r="E49" s="72"/>
       <c r="F49" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G49" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H49" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I49" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J49" s="74"/>
       <c r="K49" s="74"/>
@@ -12602,7 +12610,7 @@
     </row>
     <row r="51" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C51" s="64"/>
       <c r="D51" s="64"/>
@@ -12618,7 +12626,7 @@
     </row>
     <row r="52" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -13552,7 +13560,7 @@
       <c r="G1" s="59"/>
       <c r="H1" s="59"/>
       <c r="I1" s="61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
@@ -13563,7 +13571,7 @@
     </row>
     <row r="2" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -13581,7 +13589,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="74"/>
@@ -13599,7 +13607,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -13617,7 +13625,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
@@ -13651,7 +13659,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -13701,7 +13709,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -13719,20 +13727,20 @@
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D11" s="74"/>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
       <c r="H11" s="64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I11" s="66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
@@ -13871,7 +13879,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
@@ -13889,20 +13897,20 @@
     </row>
     <row r="21" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
       <c r="H21" s="64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
@@ -14057,7 +14065,7 @@
     </row>
     <row r="31" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="80"/>
@@ -14075,7 +14083,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
@@ -14205,7 +14213,7 @@
     </row>
     <row r="40" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
@@ -14382,57 +14390,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E1" s="82" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="82"/>
       <c r="G1" s="82"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E2" s="84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
